--- a/input_data/resume_extractor_sheet/resume_extractor_input_sheet.xlsx
+++ b/input_data/resume_extractor_sheet/resume_extractor_input_sheet.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
-  <si>
-    <t xml:space="preserve">File_path</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+  <si>
+    <t xml:space="preserve">File_name</t>
   </si>
   <si>
     <t xml:space="preserve">CandidateID</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Companys_NEW</t>
   </si>
   <si>
-    <t xml:space="preserve">input_data/resumes/GauravSaxena.docx</t>
+    <t xml:space="preserve">GauravSaxena.docx</t>
   </si>
   <si>
     <t xml:space="preserve">Gaurav Saxena</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Change</t>
   </si>
   <si>
-    <t xml:space="preserve">input_data/resumes/ZeeshanAhmad.pdf</t>
+    <t xml:space="preserve">ZeeshanAhmad.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Zeeshan Ahmad</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">ST Microelectronics</t>
   </si>
   <si>
-    <t xml:space="preserve">input_data/resumes/VibhorMalik.docx</t>
+    <t xml:space="preserve">VibhorMalik.docx</t>
   </si>
   <si>
     <t xml:space="preserve">Vibhor Malik</t>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">Acceptable</t>
   </si>
   <si>
-    <t xml:space="preserve">input_data/resumes/PerumallaVinayKumar.doc</t>
+    <t xml:space="preserve">PerumallaVinayKumar.doc</t>
   </si>
   <si>
     <t xml:space="preserve">Perumalla Vinay</t>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t xml:space="preserve">TCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GaneshGouthamM.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ganesh Goutham M</t>
@@ -405,7 +408,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -747,16 +750,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>5691874</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>6281808596</v>
@@ -768,13 +771,13 @@
         <v>3.3</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>6281808596</v>
@@ -787,7 +790,7 @@
         <v>3.4</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>22</v>

--- a/input_data/resume_extractor_sheet/resume_extractor_input_sheet.xlsx
+++ b/input_data/resume_extractor_sheet/resume_extractor_input_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="73">
   <si>
     <t xml:space="preserve">File_name</t>
   </si>
@@ -161,16 +161,96 @@
   </si>
   <si>
     <t xml:space="preserve">TATA CONSULTANCY SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vishal_kumar.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishal Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vishaldeep4357@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freelance German Language Tutor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AshishRanjan.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashish Ranjan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashishranjan.ar7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIT-Patna Mantra Labs Global MindFire Solutions Tata Consultancy Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindfire Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thriveni.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biyyala Thriveni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biyyalathriveni77@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyderabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI Sottech Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SumitGulliya.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumit Gulliya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sgulliya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Of America Continnum India Royal Bank of Scotland Saxo Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Of America Continnum India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShinieMehrotra.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shinie Mehrotra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shinie.mehrotra.vit@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal Bank Ltd Quantiphi Analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantiphi Analytics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -205,8 +285,14 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="aakar"/>
+      <family val="0"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +315,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC27BA0"/>
         <bgColor rgb="FFE06666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFFDD768"/>
       </patternFill>
     </fill>
   </fills>
@@ -273,7 +371,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,6 +393,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,7 +500,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -405,10 +523,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W7" activeCellId="0" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -427,6 +545,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="29.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="16" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -557,7 +676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -620,7 +739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -685,7 +804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -748,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -811,8 +930,323 @@
         <v>22</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>5691886</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9546299846</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>9546299846</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>5691899</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>8404853652</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>8404853652</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>5691914</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7383665921</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>7383665921</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>5691916</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>9711672619</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>9711672619</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>5691923</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>9538408670</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>9538408670</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="P2:U6">
+  <conditionalFormatting sqref="P2:U6 P7:S11">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Acceptable" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("Acceptable",P2)))</formula>
     </cfRule>
@@ -826,12 +1260,34 @@
       <formula>NOT(ISERROR(SEARCH("No Change",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:U3 P4:S6 U4:U6 T5" type="list">
+  <conditionalFormatting sqref="T7:U11">
+    <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Acceptable" dxfId="3">
+      <formula>NOT(ISERROR(SEARCH("Acceptable",T7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="No Change" dxfId="2">
+      <formula>NOT(ISERROR(SEARCH("No Change",T7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Change" dxfId="1">
+      <formula>NOT(ISERROR(SEARCH("Change",T7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="No Change" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH("No Change",T7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:U3 P4:S11 U4:U6 T5" type="list">
       <formula1>"Change,No Change"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T4 T6" type="list">
+      <formula1>"Change,No Change,Acceptable"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:U9 U10:U11 T11" type="list">
+      <formula1>"Change,No Change"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T10" type="list">
       <formula1>"Change,No Change,Acceptable"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/input_data/resume_extractor_sheet/resume_extractor_input_sheet.xlsx
+++ b/input_data/resume_extractor_sheet/resume_extractor_input_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="548">
   <si>
     <t xml:space="preserve">File_name</t>
   </si>
@@ -239,6 +239,1431 @@
   </si>
   <si>
     <t xml:space="preserve">Quantiphi Analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SahilSabharwal.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sabharwalsahil526@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genpact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahil SABHARWAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ramyakp.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramya Kp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ramyakadur96@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commonwealth Bank London Stock Exchange Group Refinitiv Thomson Reuters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commonwealth Bank of Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abisha_Baby.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abisha Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abishababysree1426@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kochi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompetentPool GetLead Analytics Pvt. Ltd. Infenox Technologies Pvt. Ltd. Zylyz Global Consultants(Autograff.in)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infenox Technologies Pvt. Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinay_yadav.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinay Kumar Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinsyadav5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Time Tec SimplexMLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Time Tec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RushabhSanjayraoBarad.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rushabh Sanjayrao Barad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baradrushabh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amravati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank of America Expected CTC 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venkatesh.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venkatesh Babu P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venkatesh.pvb486@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMSCOPE Infosys TCS Tata Consultancy Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KunikaNathwani.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunika Nathwani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunika.r.nathwani@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accenture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAAMHAR.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amhar Dhaanish Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amhar0083a@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognizant technology solutions (CTS) Suga Consultancy Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suga Consultancy Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShankarPodder.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shankar Podder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forcesguy1974@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIQA Bangalore Indian Army Rani Durgavati Vishwavidyalaya Reliance Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GauravWalia.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaurav Walia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gauravwalia06@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future group New Haribhakti Business Services Reliance Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliance Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKPadhy_Profile.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prasant Kumar Padhy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">padhy.prasant@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmedabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adani Enterprises Ltd East India Minerals Ltd. FACOR (Ferro Alloys Corporation) NALCO (National Aluminium Company Ltd.) Wipro Technologies Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adani Enterprises Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaurabhPrakashPatil.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saurabh Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saurabhpatil848@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharat Bijlee GET at HOERBIGER India Pvt. Ltd. John Deere India Private Ltd Tietoevry India Private Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tietoevry India Private Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JayaVamsiKrishnaNune.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaya Vamsi Krishna Nune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jayavamsin@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athena Health Inc. Sysinformation Helathcare India pvt limited Technosoft global pvt limited XEBIA CMIT SOFTWARE SERVICES PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XEBIA CMIT SOFTWARE SERVICES PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GauravAdani.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaurav Adani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gauravadn123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flipkart Pvt India Ltd Icici Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flipkart Pvt India Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PriyankaSaha.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanka Saha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priyankasaha01214@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narayanavanam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIMS GLOBAL CONSULTANTS Ivserve Technologies (Advayan Technologies Pvt Ltd) LEAD MANAGEMENT CONSULTANSY MR CENTAUR PHARMACEUTICALS PVT. LTD SCORE INFORMATION TECHNOLOGIES LIMITED SPICE TV INITIATIVE MEDIA ACADEMY SRIMOYEES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bidhangarh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivserve Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RajdeepSinghAjmani.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajdeep Singh Ajmani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajmani.rajdeep@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axis Bank Idfc First Bank KPMG Lower Gulf (UAE) Mu Sigma Business Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDFC FIRST Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMESHSWAIN.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animesh Swain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swain.animesh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXL Services, Pune Samagra Sikhya (SS), Govt. of Odisha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Govt. of Odisha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NarayaniKS.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narayani Kameswarasubramanian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divyabom@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hughes Communications India Pvt Limited TechMahindra Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCIL Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pankaja_Resume.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pankaja Ganganaghatta Rangaswamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pankaja.rrt@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tumkur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Solutions Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBERT BOSCH ENGINEERING AND BUSINESS SOLUTIONS PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nischita.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nischita R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nischithamalleshjv@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosch Global Software Technologies CRANES SOFTWARE INTERNATIONAL LTD. Indian Institute Of Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosch Global Software Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeviK.doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devi2010.kk@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capgemini India Pvt Ltd IBM India Pvt Ltd SLK Software Services Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capgemini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrashantSarathe.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prashant Sarathe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5432spp@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ltimindtree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTIMindtree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreekanthkammula.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreekanth Kammula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sreekanth.kammula@alumni.esade.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hp Inc Tata Consultancy Services Train2Brain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SREEKANTH KAMMULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreekanth.kammula@alumni.esade.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tata Consultancy Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnirudhNepalia.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anirudh Nepalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anirudh.nepalia@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FactSet India Pvt ltd FactSet India Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FactSet India Pvt ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TintoJamesT.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinto James T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tintojames@outlook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cochin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EY G10x SFO Technologies Verizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINTO JAMES T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G10x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShakriyaSony.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shakriya Sony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonyshakriya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wells Fargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony Shakriya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venkat.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venkat Kota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kotavenkat2004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENKAT KOTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vignesh_Pandian_N.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vigneshpandian N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nvigneshpandiyan@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhavaram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORD MOTOR PRIVATE LIMITED Rieter India Private Limited SHANTHI GEARS LIMITED SUZLON ENERGY LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medavakam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORD MOTOR PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RajkumarPatel.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajkumar Patel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajengg0987@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kashipur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srenigarajan.srichandran@cognizant.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rajengg0987@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PraneetRane.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praneet Rane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">praneetrane.9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDFC Bank Ltd. Icici Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDFC Bank Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srenigarajan.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srenigarajan. S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC IT Group (Nisson Automobile) BenchMark Solutions Cognizant Global Swoard iSOFT Lakshmi Vilas Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> srenigarajan.srichandran@cognizant.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognizant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrakritChander.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prakrit Chander Desai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prakritdesai@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4CECloud Labs pvt ltd. Amazon Development Center Innovacx Tech Labs pvt ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4CECloud Labs pvt ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NishantJamtani.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishant Jamtani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">njamtani@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Grid Corporation of India UK based power and Gas distribution company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AkhilkumarAML.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhil Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kashyappp1986@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NatWest Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARIPRASAD.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hari Prasad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hariprasad.valli@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BirlaSoft FRONTLINE CONSULTING SERVICES Wipro Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wipro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RidhiSaboo.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ridhi Saboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ridhisaboo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsche Bank Standard Chartered Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Chartered Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShubhamAggarwal.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham Aggarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shubh15@outlook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Energy IBM India Pvt. Ltd Sydney Water Corporation Wipro Technologies Xoserve Yash Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM India Pvt. Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmbikaVenkat.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambika V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambika.venku@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ambika.venku@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmrutiDash.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smruti Abha Dash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smrutiabha09@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill mine Technology and Consulting Services Tatwa Technologies Ltd Uber X Lent services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeshaReddy.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesha Pokala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sesha.pokala@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUMARAN SYSTEMS Pvt Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUMARAN SYSTEMS Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NeerajKumar.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neeraj Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pathakneeraj1977@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCL Technologies Khanna Paper Mills Mawai Infotech Limited Radiant Export Sopra Steria India Ltd Vital Wires Consulting Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pathakneeraj1977@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sopra Steria India Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSURESH.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suresh.g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gnanasekar.suresh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREW Pvt. Ltd. Mettur Thermal Power Station-MTPS Mutiara Thermal Power Plant TSPL Power Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuddalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREW (Chennai Radha Engineering Works) Pvt. Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshat_Vidyarthi.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshat Vidyarthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akshat.vidyarthi.ug23@nsut.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwarka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present Employer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location not identified - others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karthick_Raja_s.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karthick Raja P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaarthiiiiick.me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madurai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Institute Of Technology Madras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RonalaSahoo.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronala Sahoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lit.ronal2016@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odisha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pragyan_Chauhan.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pragyan Chauhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pragyan.chauhan1947@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DevComm Google Developer Student Club NSUT Moksha Resonanz The Quiz Club of NSUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRNITINSHANKARJOSHI.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Nitin Shankar Joshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nibeeka2000@yahoo.co.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biogenomics Ltd. DiagnoSearch Pvt. Ltd. Karmiclifesciences Pvt. Ltd. Private Consultant (Consultant Gynaecologist) Siroclinpharm Pvt. Ltd. Zydus Cadilla Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiagnoSearch Pvt. Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankita_Chauhan.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankita Chauhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankita.chauhan2512@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Four Technologies CapGemini Expleo Group Tech Mahindra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expleo Group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VenkateshMurugan.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venkatesh M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venkatmurugan98@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dharmapuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versha_Nishad.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versha Nishad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vershaveersha03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSUT, Delhi Suditi Global Academy, UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhurima_Bose.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhurima Bose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mbasu2499@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Guardian India Walmart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardian India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshit_Jha.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshit Jha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harshitjha393@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freelancer.com LMDmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRERNENDU_BHAGAT.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prernendu Bhagat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prernendubhagat@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURA GRC Pvt Ltd GradatiM IT Ventures KPMG India Polestar Solutions &amp; Services India Pvt Ltd Pricewaterhousecoopers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRASANT_SOY.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prasant Soy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prasantyos@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coimbatore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;T Technology Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suvarna_Patil.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suvarna Rajendra Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suvarnapatil3198@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flextronics Technologies India Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flextronics Technologies India Pvt. Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varsha_CV.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varsha P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varsha23prakash@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Development Center Gallagher Service Center Integrated Global Services, Inc (IGS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Global Services, Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AniruddhaMisal.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aniruddha Misal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anirudhamisal236@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infodart Technology Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InfoCepts Technologies Pvt.Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anilkumar.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anil Kumar K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anilkumarkotams@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deloitte Mphasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deloitte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SangeethaD.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangeetha D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sangeethadhanashekara@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accenture Acl Digital Schneider Electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACL Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MohamadAsansha.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamad Asansha A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asanshaece@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rnd Softech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nilgiris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RND Softech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karishma_neole.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karishma Neole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karishma.neole12@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernst &amp; Young Oracle Pvt. Ltd (RGBU) TIMES INTERNET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Times Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vatsala_Banerji.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vatsala Banerji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vatssai10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadence Design System Ltd., Noida GMR Pvt Ltd. Samsung Research Institute, Noida Steria India Ltd Synovate India Ltd., New Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung Research Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shreenivas_channa.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shreenivas Channa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.channa@rediffmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blueocean Market Intelligence Capgemini Consulting India Ltd. Cartesian Consulting Pvt. Ltd. General Mills India Pvt Ltd. ICICI Prudential Life Insurance Minacs Minacs Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHREENIVAS SHAMRAO CHANNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narang Access Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MayankBhardwaj.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayank Bhardwaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mbhrdwaj@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLA Global IVC IBM WNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLA Global IVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonal_jharkharia.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonal Jharkharia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonal.jharkharia@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accenture COLLAB-LAB IIT, KANPUR Libsys OMDENA - NEWSROOM United health Groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCENTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMEER_CV.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sameer Behera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beherasameer108@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nippen Electricals Instruments Co.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nippen Electricals Instruments Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarun_kumar.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarun Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarun9804@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSTEP (Centre for Study of Science, Technology and Policy) Husk Power Systems ROBERT BOSCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husk Power Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSUmapathi.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umapathi K S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umapathisrinivas1996@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maveric Systems ltd Te Connectivity (PCS Services)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maveric Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmitLaxmanDhawale.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amit Dhawale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amitdhawale1998@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accenture Acumatica Corten Logistics / UK Dr. D.Y. Patil Institue of Technology / India UHC / US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corten Logistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soham_s_prabhulkar.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soham Suresh Prabhulkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soham.prabhulkar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESDS SOFTWARE SOUTIONS PVT LTD. Essex Lake Group Future supply chains Solutions ltd K. C. POWER INFRA PVT LTD. MATRIX3D INFOCOM PRIVATE LTD. ORICA INC. THOUCENTRIC PVT LTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THOUCENTRIC PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anurika_Nath.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anurika Nath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anurikanath22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolkata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accenture Pvt. Ltd Exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chirag_gupte.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chirag Gupte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chiragmgupte@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Larsen Toubro Ltd IndiaMart Shaadi.com, People Interactive Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaadi.com, People Interactive Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayush_singh.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayush Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayush28.gkp@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Able Jobs Airdev ICICI Lombard Poli RecordBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYUSH SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecordBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marvin_diaz.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvin Diaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi@marvindiaz.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerologix Pty Ltd AirFi.aero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerologix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HariKrishna.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hari Krishna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.harikris@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapGemini PENNAR INDUSTRIES TATA CONSULTANCY SERVICES &amp; WIPRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARI KRISHNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPGEMINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parthiban.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parthiban B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parthibanb1122@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kun commercial vehicle private limited SAKTHI MANAGEMENT SERVIES XPRESSBEES LOGISTICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kun commercial vehicle private limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">himani_gandhi.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Himani Gandhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">himanigandhi71@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moda(Lifesight) MovieMe TCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MovieMe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pranjil_chaturvedi.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranjil Chaturvedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pranjil.pgp23@iimshillong.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faridabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung R D ServiceNow STMicroelectronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayank_Mishra.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayankesh Mishra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mayankeshmishra100@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghaziabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iventors Initiatives Josh Technology Group Razorpay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razorpay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghav_Bansal.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghav Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raghavbansaliiitu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Development Center ANTWAK Cleartrip Growell India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEARTRIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saransh_dawra.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saransh Dawra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saransh2000dawra@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleartrip (Flipkart Group)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JoyGhosh.doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joy Ghosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jg_ghosh@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eaga Energy India Pvt. Ltd. Elecom Software Pvt. Ltd. MG Tathya Solutions Pvt. Ltd R S Software ThoughtFocus Information Technologies Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhyamgram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThoughtFocus Information Technologies Pvt. Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheev_charan.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheev Charan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gottalivesheev@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNC Energy Evon Technologies Heartfulness Niti AI Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niti AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jyotbir_lamba.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jyotbir Lamba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jyotbirl13@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dukaan Kotak Securities TresVista Financial Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotak Securities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_indrani.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.indrani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g.indrani.1118@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head Digital Works Pvt. Ltd. Meritto (Formerly NoPaperforms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head Digital Works Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DayanandaBabuS.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayananda Babu S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">babu.daya05@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellucian Higher Education Systems Fidelity Information Services IBM India Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellucian Higher Education Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shubhank_rastogi.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubhank Rastogi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shubhankrastogi50@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Paisa Capital Icici Bank Svamaan Financial (JSW group)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svamaan Financial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankit_pradhan.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankit Pradhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankitpradhan2k15@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmingham 2022 Commonwealth Games Larsen &amp; Toubro Technology Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhubaneswar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmingham 2022 Commonwealth Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShraddhaMane.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shraddha Mane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shraddhamane34@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barclays Capgemini Technology Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barclays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RaghuNandan.doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghu Nandan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raghuchawla@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM India Pvt. Limited JCB India Pvt Ltd Panalytical  Group (Spectris Technologies) Siemens Information Systems Limited Wipro Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JCB India Pvt Ltd</t>
   </si>
 </sst>
 </file>
@@ -286,10 +1711,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="aakar"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -371,7 +1798,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -396,10 +1823,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -416,6 +1839,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +1856,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -451,6 +1882,42 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF277E3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF277E3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF277E3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -523,19 +1990,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W7" activeCellId="0" sqref="W7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="42.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.59"/>
@@ -1049,7 +2518,7 @@
       <c r="S8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="U8" s="5" t="s">
@@ -1156,8 +2625,8 @@
       <c r="L10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9" t="n">
+      <c r="M10" s="7"/>
+      <c r="N10" s="8" t="n">
         <v>11.9</v>
       </c>
       <c r="O10" s="5" t="s">
@@ -1175,7 +2644,7 @@
       <c r="S10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="9" t="s">
         <v>36</v>
       </c>
       <c r="U10" s="5" t="s">
@@ -1242,6 +2711,5770 @@
         <v>23</v>
       </c>
       <c r="U11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>5691928</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9818892422</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>9818892422</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>5691933</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7259965580</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>7259965580</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>5692197</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>8848191529</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>8848191529</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>5692227</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8837682541</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>8837682541</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>5692228</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>7620137783</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>7620137783</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>5692229</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>9492730050</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>9492730050</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="7" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>5692242</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>9550391472</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>9550391472</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>5692265</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>8925416385</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>8925416385</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>5692315</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>9761698961</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>9761698961</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>5692317</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>9811846795</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>9811846795</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>5692321</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>9008994949</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>9008994949</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="7" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>5692373</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>9423449862</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>9423449862</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>5692439</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>9177000632</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>9177000632</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>5692464</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>9096860469</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="5" t="n">
+        <v>9096860469</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>5692475</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>9804832126</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <v>9804832126</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="N26" s="5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>5694453</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>9741324433</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>9741324433</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="5" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>5694780</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>7008802266</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>7008802266</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="7" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>5694816</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>9920952984</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>9920952984</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>5694859</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>9686282250</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K30" s="5" t="n">
+        <v>9686282250</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>5694896</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>9686193899</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" s="5" t="n">
+        <v>9686193899</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>5695039</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>9380376004</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K32" s="5" t="n">
+        <v>9380376004</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="5" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>5695048</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>9148536063</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K33" s="5" t="n">
+        <v>9148536063</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>5695074</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>9212323451</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K34" s="5" t="n">
+        <v>9212323451</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>5695075</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>8712819690</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K35" s="5" t="n">
+        <v>8712819690</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>5695129</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>9884259749</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>9884259749</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>5695216</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>8142916577</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K37" s="5" t="n">
+        <v>8142916577</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>5695295</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>9701712613</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>9701712613</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>5695333</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>9894933651</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K39" s="5" t="n">
+        <v>9894933651</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>5696065</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>9372632347</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K40" s="5" t="n">
+        <v>9372632347</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="5" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>5696066</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>8796801733</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K41" s="5" t="n">
+        <v>8796801733</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>5696124</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>9841875918</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="K42" s="5" t="n">
+        <v>9841875918</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="8" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>5696224</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>9581515511</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="K43" s="5" t="n">
+        <v>9581515511</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>5696234</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>7692861230</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="K44" s="5" t="n">
+        <v>7692861230</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="7" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>5696270</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>9310107452</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="5" t="n">
+        <v>9310107452</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>5696286</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>9959380888</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="K46" s="5" t="n">
+        <v>9959380888</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>5696294</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>9740122270</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="K47" s="5" t="n">
+        <v>9740122270</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>5696311</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>9503407874</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K48" s="5" t="n">
+        <v>9503407874</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>5696312</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>9677075617</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K49" s="5" t="n">
+        <v>9677075617</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="5" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>5696371</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>7406659720</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="K50" s="5" t="n">
+        <v>7406659720</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="5" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>5696374</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>9952903261</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K51" s="5" t="n">
+        <v>9952903261</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>5696393</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>9599289122</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K52" s="5" t="n">
+        <v>9599289122</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="M52" s="5"/>
+      <c r="N52" s="7" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>5725158</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>9626478674</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="K53" s="5" t="n">
+        <v>9626478674</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="N53" s="7" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U53" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>5720856</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>8595622231</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K54" s="5" t="n">
+        <v>8595622231</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>5720857</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>9361139648</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K55" s="5" t="n">
+        <v>9361139648</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U55" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>5720859</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>7325897439</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K56" s="5" t="n">
+        <v>7325897439</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N56" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>5720865</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>9811297236</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="K57" s="5" t="n">
+        <v>9811297236</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>5725136</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>9820034002</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="K58" s="5" t="n">
+        <v>9820034002</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N58" s="5" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>5720881</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>9019912950</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="K59" s="5" t="n">
+        <v>9019912950</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N59" s="5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U59" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>5720884</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>8072052580</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="K60" s="5" t="n">
+        <v>8072052580</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N60" s="7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>5720886</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>7668114206</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="K61" s="5" t="n">
+        <v>7668114206</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T61" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>5720887</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>8250501744</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="K62" s="5" t="n">
+        <v>8250501744</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N62" s="8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>5720893</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>8800734947</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K63" s="5" t="n">
+        <v>8800734947</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B64" s="5" t="n">
+        <v>5720907</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>9771908503</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="K64" s="5" t="n">
+        <v>9771908503</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>5721039</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>8617036641</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="K65" s="5" t="n">
+        <v>8617036641</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N65" s="5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U65" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>5721049</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>9130101976</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="K66" s="5" t="n">
+        <v>9130101976</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N66" s="5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>5721093</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>9113003960</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="K67" s="5" t="n">
+        <v>9113003960</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N67" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U67" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>5721103</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>9503712226</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="K68" s="5" t="n">
+        <v>9503712226</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N68" s="5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S68" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>5721143</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>9449002895</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="K69" s="5" t="n">
+        <v>9449002895</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N69" s="5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S69" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U69" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>5721263</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>7411920580</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="K70" s="5" t="n">
+        <v>7411920580</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N70" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U70" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>5721267</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>9361444641</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K71" s="5" t="n">
+        <v>9361444641</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N71" s="5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S71" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T71" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U71" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>5721386</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>9825045310</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="K72" s="5" t="n">
+        <v>9825045310</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N72" s="5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U72" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>5721408</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>7042926262</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="K73" s="5" t="n">
+        <v>7042926262</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N73" s="5" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T73" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U73" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>5721450</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>9819316655</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="K74" s="5" t="n">
+        <v>9819316655</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N74" s="5" t="n">
+        <v>8.11</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T74" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U74" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>5721468</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>9013191886</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="K75" s="5" t="n">
+        <v>9013191886</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N75" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S75" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T75" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U75" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>5721473</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>8267819844</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="K76" s="5" t="n">
+        <v>8267819844</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N76" s="5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>5721519</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>9777509163</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="K77" s="5" t="n">
+        <v>9777509163</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N77" s="5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>5721546</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>9789819526</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="K78" s="5" t="n">
+        <v>9789819526</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N78" s="7" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>5721572</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>9448565799</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G79" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="K79" s="5" t="n">
+        <v>9448565799</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N79" s="7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T79" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U79" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>5721627</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>9850521107</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="K80" s="5" t="n">
+        <v>9850521107</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N80" s="5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="P80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T80" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>5721778</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>7202788533</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="K81" s="5" t="n">
+        <v>7202788533</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N81" s="5" t="n">
+        <v>8.11</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T81" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U81" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B82" s="5" t="n">
+        <v>5721789</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>9953991892</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="K82" s="5" t="n">
+        <v>9953991892</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N82" s="5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U82" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>5721821</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E83" s="5" t="n">
+        <v>9650124358</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="K83" s="5" t="n">
+        <v>9650124358</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N83" s="5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="P83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U83" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>5721826</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>7054118676</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="K84" s="5" t="n">
+        <v>7054118676</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N84" s="5" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S84" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T84" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U84" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>5721937</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>8754417015</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G85" s="5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="K85" s="5" t="n">
+        <v>8754417015</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N85" s="5" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="O85" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="P85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S85" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T85" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U85" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>5722009</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>9885971959</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="K86" s="5" t="n">
+        <v>9885971959</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N86" s="5" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="P86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S86" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T86" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U86" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B87" s="5" t="n">
+        <v>5722037</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>8124187360</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G87" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="K87" s="5" t="n">
+        <v>8124187360</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N87" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T87" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U87" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B88" s="5" t="n">
+        <v>5722580</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>8741833857</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="K88" s="5" t="n">
+        <v>8741833857</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N88" s="5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S88" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T88" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U88" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>5722594</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E89" s="5" t="n">
+        <v>8512040212</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="G89" s="5" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K89" s="5" t="n">
+        <v>8512040212</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N89" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="P89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T89" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U89" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B90" s="5" t="n">
+        <v>5722747</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E90" s="5" t="n">
+        <v>7905084484</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="K90" s="5" t="n">
+        <v>7905084484</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N90" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S90" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U90" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B91" s="5" t="n">
+        <v>5722792</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E91" s="5" t="n">
+        <v>9478121646</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="K91" s="5" t="n">
+        <v>9478121646</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N91" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="P91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S91" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U91" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B92" s="5" t="n">
+        <v>5722798</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E92" s="5" t="n">
+        <v>8800474531</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="K92" s="5" t="n">
+        <v>8800474531</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N92" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="P92" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q92" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R92" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S92" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T92" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U92" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>5722811</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E93" s="5" t="n">
+        <v>9831479781</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="5" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="K93" s="5" t="n">
+        <v>9831479781</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="N93" s="5" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="O93" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="P93" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q93" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R93" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S93" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T93" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U93" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B94" s="5" t="n">
+        <v>5722977</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>9492077799</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="K94" s="5" t="n">
+        <v>9492077799</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N94" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U94" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>5723339</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E95" s="5" t="n">
+        <v>8447104076</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G95" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="K95" s="5" t="n">
+        <v>8447104076</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M95" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N95" s="5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="P95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S95" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T95" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U95" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>5723481</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E96" s="5" t="n">
+        <v>9821796648</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G96" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="K96" s="5" t="n">
+        <v>9821796648</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N96" s="5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="P96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S96" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T96" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U96" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>5723547</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E97" s="5" t="n">
+        <v>6362222706</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" s="5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="K97" s="5" t="n">
+        <v>6362222706</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N97" s="5" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="O97" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="P97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T97" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U97" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B98" s="5" t="n">
+        <v>5723573</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E98" s="5" t="n">
+        <v>8849667034</v>
+      </c>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="K98" s="5" t="n">
+        <v>8849667034</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N98" s="5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="P98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S98" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T98" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U98" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B99" s="5" t="n">
+        <v>5723596</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E99" s="5" t="n">
+        <v>8097899391</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="K99" s="5" t="n">
+        <v>8097899391</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N99" s="5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O99" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="P99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S99" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T99" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U99" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B100" s="5" t="n">
+        <v>5723640</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E100" s="5" t="n">
+        <v>8788573233</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G100" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="K100" s="5" t="n">
+        <v>8788573233</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N100" s="5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="P100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T100" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U100" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>5723748</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E101" s="5" t="n">
+        <v>9811232447</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K101" s="5" t="n">
+        <v>9811232447</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N101" s="8" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="O101" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q101" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R101" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S101" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T101" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U101" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1260,21 +8493,48 @@
       <formula>NOT(ISERROR(SEARCH("No Change",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:U11">
+  <conditionalFormatting sqref="T7:U11 P12:U52">
     <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Acceptable" dxfId="3">
-      <formula>NOT(ISERROR(SEARCH("Acceptable",T7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Acceptable",P7)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="No Change" dxfId="2">
-      <formula>NOT(ISERROR(SEARCH("No Change",T7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No Change",P7)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Change" dxfId="1">
-      <formula>NOT(ISERROR(SEARCH("Change",T7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Change",P7)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="No Change" dxfId="0">
-      <formula>NOT(ISERROR(SEARCH("No Change",T7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No Change",P7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <conditionalFormatting sqref="P53:U101">
+    <cfRule type="containsText" priority="10" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="No Change" dxfId="4">
+      <formula>NOT(ISERROR(SEARCH("No Change",P53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="No Chnage" dxfId="5">
+      <formula>NOT(ISERROR(SEARCH("No Chnage",P53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Change" dxfId="6">
+      <formula>NOT(ISERROR(SEARCH("Change",P53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="13" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="No Change" dxfId="3">
+      <formula>NOT(ISERROR(SEARCH("No Change",P53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="14" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Change" dxfId="2">
+      <formula>NOT(ISERROR(SEARCH("Change",P53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T56">
+    <cfRule type="containsText" priority="15" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Acceptable" dxfId="1">
+      <formula>NOT(ISERROR(SEARCH("Acceptable",T56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T95:T101 T93 T88 T87 T85 T82 T77 T75 T72 T69:T70 T65:T67 T58">
+    <cfRule type="containsText" priority="16" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Acceptable" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH("Acceptable",T58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="8">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:U3 P4:S11 U4:U6 T5" type="list">
       <formula1>"Change,No Change"</formula1>
       <formula2>0</formula2>
@@ -1291,6 +8551,22 @@
       <formula1>"Change,No Change,Acceptable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P12:U12 P13:S52 U13:U52 T16:T17 T19 T22:T28 T30:T36 T38 T40:T41 T45:T47 T49 T52" type="list">
+      <formula1>"Change,No Change"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T13:T15 T18 T20:T21 T29 T37 T39 T42:T44 T48 T50:T51" type="list">
+      <formula1>"Change,No Change,Acceptable"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P53:U55 P56:S101 U56:U101 T57 T59:T64 T68 T71 T73:T74 T76 T78:T81 T83:T84 T86 T89:T92 T94" type="list">
+      <formula1>"Change,No Change"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T56 T58 T65:T67 T69:T70 T72 T75 T77 T82 T85 T87:T88 T93 T95:T101" type="list">
+      <formula1>"Change,No Change,Acceptable"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/input_data/resume_extractor_sheet/resume_extractor_input_sheet.xlsx
+++ b/input_data/resume_extractor_sheet/resume_extractor_input_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="1546">
   <si>
     <t xml:space="preserve">File_name</t>
   </si>
@@ -3869,6 +3869,795 @@
   </si>
   <si>
     <t xml:space="preserve">Accenture Solutions Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NisheethKumar.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N Is H E Et H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nisheethkr7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teleperformance India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NISHEETH KUMAR BAUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teleperformance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potunuru_Keerthana.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potnuru Keerthana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pkeerthana580@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTECH SOFTWARE SOLUTions PVT.LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location Not Identified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTECH SOFTWARE SOLUTIONS PVT.LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRADEEPTHANKAPPAN.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pradeep Thankappan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pradeep.thankappan@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altice Bell Canada Cablevision Capitel Comcast Genzeon Pvt Ltd Infosys Infosys Technologies Ltd Nortel Sharecare (Digital House) Verizon Warner Brothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharecare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vivek_gupta.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivek Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023@deoriaprivet.iti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKH Y TEC India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vivekgupta12356@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pragati_Singh.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praga Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC Tire Private Limited TATA Cummins Private Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pragati Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spragati278@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gujarat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC Tire Private Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinodkumar.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinod.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91-6302816037vinodkumarmerugu.47@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anil Neuro and Trauma center Avidex Info tech E Teams Info Services Pvt Ltd KK Hospital Sigma Software Solutions Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinodkumarmerugu.47@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigma Software Solutions Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YatheshReddy.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yathesh Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91-9632419733yatheshreddy321@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrola software technologies India Private Limited Linkedin service private Limited LTIMindtree Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yathesh Kumar Reddy Saddikuti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yatheshreddy321@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likedin service private Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AasthaThakur_6y_1m_.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astha Thakur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aastha.thakur-659494167@linkedin.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AASTHA THAKUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aasthathakur6868@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SourabhBhagwat.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sourabh Bhagwat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008@deviahilyavishwavidyalaya.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acpl Systems Pvt Ltd Arbor HCL Technologies Ltd. Hitachi Systems Micro Clinic Wipro Infotech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sourabhb445@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BudhadityaDey.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budhaditya Dey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">budhaditya.dey25@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJ Mohan and Associates PwC India (AC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShashankKumarTyagi.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shashank Kumar Tyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanutg@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accenture Jellyfish Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JellyFish Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simran.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chughsimran56@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIFL Orange Mantra Trupp Global Technologies Pvt. Ltd. Zucol Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AbhishekPal.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishek Pal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhi.rke39@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCL Technologies Hitachi Systems Micro Clinic PVT. LTD. Infini minds PVT LTD InTarvo Technologies Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namrata_Pujari.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namrata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namratapujari2002@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solapur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namrata Pujari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnitheswariDevi10y_5m.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anitheswari Devi M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anitheswaridevim@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCL Technologies ProFound Infotech Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANITHESWARI DEVI M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RajeshKumar.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajesh Kushwaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajeshkushwahauk@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognizant HCL Technologies, Noida HyTech Services Incedo, Gurgaon iYogi, Gurgaon TCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJESH KUSHWAHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashish_lagishetty.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashish Lagishetty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashishlagishetty@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueStone Jewellery Levis MARKS &amp; SPENCER RAYMOND - MADE TO MEASURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASHISH LAGISHETTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueStone Jewellery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaskaran_PalSingh.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaskaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kalra.jaskaranpal@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amritsar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognizant Oncehub Tata Consultancy Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaskaran Pal Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandigarh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oncehub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NiranjanMazumdar.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niranjan Mazumdar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niranjan.portal@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTI Mindtree RabbitMQ Tata Consultancy Services Wipro Technologies Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTI Mindtree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria_Cristina_Polancos.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Cristina Polancos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cristinabalindo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converged IT On Point Technology, LCC Smartfoxdata Technomancer Workbank Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA CRISTINA POLANCOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHILIPPINES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMARTFOXDATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariel_Resume.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariel D. Onting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mariel.onting4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taguig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardinal Health International Philippines - Healthcare Account Freelancer Telus International Philippines - Retail Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIEL D. ONTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardinal Health International Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishidha.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishidha C Ail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nishidhacail@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amar Infraprojects Emerge Business Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasaragod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amar Infraprojects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prashanth6y_6m.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prashanth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erramprashanth5684@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fis TCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VipinRaturi.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vipin Raturi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vipinraturi2244@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genpact Hogarth Studios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hogarth Studios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahantesh.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahantesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahiifintech@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altus Mindstream Innovation Pvt Ltd Friesian Technologies Private Limited Marvelle Skin Care Pvt Ltd P Venugopalachari Chartered Accountants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahiifintech@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altus Mindstream Innovation Pvt Ltd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAHULKAMADI.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahul Kamadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahulkamadi92@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM, India Predikly Technologies Pvt. Ltd., India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajay_Santhosh_P.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajay Santhosh P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spajay2000@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuticorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAKSHIN BHARATH GATEWAY TERMINAL JANAKI TRADERS SHIPPING PVT LTD SEAPOL LOGISTICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JANAKI TRADERS SHIPPING PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PothalaNeelima.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neelima Pothala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neelupothala@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satyaprakash.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satya Prakash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satyapraks44@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotak Mahindra Bank Wells Fargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SATYA PRAKASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogeshvri.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogeshvri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuktigoel829@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haryana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOGESHVRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BindhuMV.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bindhu Mv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bindhumv1398@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapt IQ (Consleague Consulting)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINDHU MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapt IQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajasekhar.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajasekhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajasekhar.python3366@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapGemini Gallagher Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapGemini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rambabu.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rambabu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mtpllram@outlook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accenture Bank of America, Retirement services SLK Software Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VarshaNaC.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varsha Na C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nac.varsha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neyveli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndujapriyaB.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indujapriya B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indujapriya2001@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pollachi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CaratLane Trading Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vipin_yadav_cv.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vipin Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vipinmardanpur@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samvdhana Motherson internation limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virendra_kirar.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viresh Kirar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virendrakirarbamori@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talegaon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSPG Automotive takeve Pune Mahindra &amp; Mahindra Ltd chakan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIRENDRA KIRAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahindra &amp; Mahindra Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinay_Kumar_Rauniyar.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinay Rauniyar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinayrauniyar924@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nifco India Pvt. Ltd PPAP Automotive Pvt. Ltd Sellowrap EPP India Pvt. Ltd Yazaki India Pvt. Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinay Kumar Rauniyar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nifco India Pvt. Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BnarenderRao.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Narender Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naren8487@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognizant Technology Solutions India Private Limited Data Monitoring Venture/Global Data Deloitte Touch Tohmatsu India LLP Deloitte US India Offices Jp Morgan Services India Pvt Ltd Thomson Reuters Wells Fargo International Solutions Private Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wells Fargo International Solutions Private Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRI-USHA.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sriusharani Sudarshanam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sriushasudarshanam@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUDARSHANAM SRI USHA RANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DigiTeleNetworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GiskaHernandez.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giska Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gigipiahernandez03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognizant Softvision - Manila Denso Ten Solutions Philippines Inc. DTN Manila Nowcom Global Solutions LLC Reed Elsevier Shared Services Inc. Philippines Verifone Global Development Center Inc. Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognizant Softvision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchanaKhade.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archana Rajendra Khade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archana.patil84@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cybage Dire Straits Consulting Infosys Ltd Systime Global solutions TechProcess Solutions Pvt Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cybage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiwakarGupta.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diwakar Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diwakar-gupta-8013b5179@linkedin.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PwC USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diwakar9525@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PwC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RITWIKGUHATHAKURTA.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritwik Guha Thakurta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ritwikguhathakurta@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Bank of India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padmashree_S.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padmashree S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pshree984@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10kinfo Data Solutions Pvt Ltd Etech IT Solutions (Previously MA IT Solutions) Mekhalyn Consulting (Previously Topsys Solutions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etech IT Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorraine_Ardiente.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorraine Ardiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ardientelorraine@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xtreme Offshores Outsourcing Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xtreme Offshores Outsourcing Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEHASINGH.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neha Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singh.neha006@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accenture Solutions Private Limited Global Market Insights Hindustan Petroleum Private Limited Ingenious e-Brain Solutions Private Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmanArora.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aman Arora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa.arora.1996@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon eClerx Intelegencia Analytics Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclerx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJAYSARATHSUBRAMANI.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajay Sarath Subramani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajaysarath.psmani@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristocrat Interactive (Pariplay India Private Limited) Lion Bridge Technologies Pariplay India Private Limited Scientific Games Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristocrat Interactive</t>
   </si>
 </sst>
 </file>
@@ -3881,7 +4670,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3958,6 +4747,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF262626"/>
+      <name val="aakar"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D1D1D"/>
       <name val="aakar"/>
       <family val="0"/>
       <charset val="1"/>
@@ -4069,7 +4865,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4147,6 +4943,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4286,7 +5086,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF277E3E"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF1D1D1D"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -4301,17 +5101,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U238"/>
+  <dimension ref="A1:U287"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I108" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J130" activeCellId="0" sqref="J130"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F219" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V19" activeCellId="0" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.18"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.46"/>
@@ -12115,7 +12915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>665</v>
       </c>
@@ -19439,6 +20239,3167 @@
         <v>35</v>
       </c>
       <c r="U238" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B239" s="5" t="n">
+        <v>5948500</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E239" s="5" t="n">
+        <v>8563966764</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G239" s="5" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I239" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J239" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K239" s="5" t="n">
+        <v>8563966764</v>
+      </c>
+      <c r="L239" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M239" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N239" s="5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O239" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="P239" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q239" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R239" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S239" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T239" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U239" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B240" s="5" t="n">
+        <v>5949327</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E240" s="5" t="n">
+        <v>6382837356</v>
+      </c>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J240" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K240" s="5" t="n">
+        <v>6382837356</v>
+      </c>
+      <c r="L240" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M240" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N240" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O240" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="P240" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q240" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R240" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S240" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T240" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U240" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B241" s="5" t="n">
+        <v>5949796</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E241" s="5" t="n">
+        <v>8056286774</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G241" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I241" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J241" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K241" s="5" t="n">
+        <v>8056286774</v>
+      </c>
+      <c r="L241" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M241" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N241" s="5" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="O241" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="P241" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q241" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R241" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S241" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T241" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U241" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B242" s="5" t="n">
+        <v>5947245</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E242" s="5" t="n">
+        <v>8651735805</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G242" s="5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J242" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K242" s="5" t="n">
+        <v>8651735805</v>
+      </c>
+      <c r="L242" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M242" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N242" s="5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O242" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="P242" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q242" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R242" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S242" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T242" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U242" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B243" s="19" t="n">
+        <v>5947355</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E243" s="5" t="n">
+        <v>6388545076</v>
+      </c>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I243" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J243" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K243" s="5" t="n">
+        <v>6388545076</v>
+      </c>
+      <c r="L243" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M243" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N243" s="5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O243" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="P243" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q243" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R243" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S243" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T243" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U243" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B244" s="5" t="n">
+        <v>5947667</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E244" s="5" t="n">
+        <v>6302816037</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G244" s="5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I244" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J244" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K244" s="5" t="n">
+        <v>6302816037</v>
+      </c>
+      <c r="L244" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M244" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N244" s="5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O244" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="P244" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q244" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R244" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S244" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T244" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U244" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B245" s="5" t="n">
+        <v>5947821</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E245" s="5" t="n">
+        <v>9632419733</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G245" s="5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I245" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="J245" s="5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="K245" s="5" t="n">
+        <v>9632419733</v>
+      </c>
+      <c r="L245" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M245" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N245" s="5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O245" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="P245" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q245" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R245" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S245" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T245" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U245" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B246" s="5" t="n">
+        <v>5948628</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E246" s="5" t="n">
+        <v>9634702275</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G246" s="5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J246" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K246" s="5" t="n">
+        <v>9634702275</v>
+      </c>
+      <c r="L246" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M246" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N246" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O246" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P246" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q246" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R246" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S246" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T246" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U246" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B247" s="5" t="n">
+        <v>5948659</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E247" s="5" t="n">
+        <v>7838974143</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G247" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I247" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J247" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K247" s="5" t="n">
+        <v>7838974143</v>
+      </c>
+      <c r="L247" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="M247" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N247" s="5" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="O247" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="P247" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q247" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R247" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S247" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T247" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U247" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B248" s="5" t="n">
+        <v>5947360</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E248" s="5" t="n">
+        <v>11802163</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G248" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="K248" s="5" t="n">
+        <v>9007789112</v>
+      </c>
+      <c r="L248" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M248" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N248" s="5" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O248" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P248" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q248" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R248" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S248" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T248" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U248" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B249" s="5" t="n">
+        <v>5947676</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E249" s="5" t="n">
+        <v>10485124</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G249" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H249" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I249" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J249" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K249" s="5" t="n">
+        <v>9901428260</v>
+      </c>
+      <c r="L249" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="M249" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N249" s="5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O249" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="P249" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q249" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R249" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S249" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T249" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U249" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B250" s="5" t="n">
+        <v>5948109</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E250" s="5" t="n">
+        <v>616175199</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="G250" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K250" s="5" t="n">
+        <v>8168869717</v>
+      </c>
+      <c r="L250" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="M250" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N250" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O250" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="P250" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q250" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R250" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S250" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T250" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U250" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B251" s="5" t="n">
+        <v>5949397</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E251" s="5" t="n">
+        <v>91094406</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G251" s="5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I251" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="J251" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K251" s="5" t="n">
+        <v>8899461439</v>
+      </c>
+      <c r="L251" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M251" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N251" s="5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O251" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="P251" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q251" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R251" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S251" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T251" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U251" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B252" s="5" t="n">
+        <v>5947032</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E252" s="5" t="n">
+        <v>9011326474</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G252" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" s="13"/>
+      <c r="I252" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="J252" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K252" s="5" t="n">
+        <v>9011326474</v>
+      </c>
+      <c r="L252" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M252" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N252" s="5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O252" s="5"/>
+      <c r="P252" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q252" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R252" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S252" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T252" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U252" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B253" s="5" t="n">
+        <v>5947046</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E253" s="5" t="n">
+        <v>7095995117</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G253" s="5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I253" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="J253" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K253" s="5" t="n">
+        <v>7095995117</v>
+      </c>
+      <c r="L253" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M253" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N253" s="5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O253" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="P253" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q253" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R253" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S253" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T253" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U253" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B254" s="19" t="n">
+        <v>5947047</v>
+      </c>
+      <c r="C254" s="19" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D254" s="19" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E254" s="19" t="n">
+        <v>7776066303</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G254" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="J254" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="K254" s="19" t="n">
+        <v>7776066303</v>
+      </c>
+      <c r="L254" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="M254" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N254" s="5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O254" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P254" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q254" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R254" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S254" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T254" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U254" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B255" s="19" t="n">
+        <v>5947058</v>
+      </c>
+      <c r="C255" s="19" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D255" s="19" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E255" s="19" t="n">
+        <v>8108484593</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G255" s="5" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I255" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J255" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K255" s="19" t="n">
+        <v>8108484593</v>
+      </c>
+      <c r="L255" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M255" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N255" s="7" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="O255" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="P255" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q255" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R255" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S255" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T255" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U255" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B256" s="5" t="n">
+        <v>5947065</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E256" s="5" t="n">
+        <v>9780945733</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G256" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I256" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J256" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K256" s="5" t="n">
+        <v>9780945733</v>
+      </c>
+      <c r="L256" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="M256" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N256" s="5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O256" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="P256" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q256" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R256" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S256" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T256" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U256" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B257" s="5" t="n">
+        <v>5947068</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E257" s="5" t="n">
+        <v>9830505150</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G257" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H257" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I257" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J257" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K257" s="5" t="n">
+        <v>9830505150</v>
+      </c>
+      <c r="L257" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M257" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N257" s="5" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="O257" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="P257" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q257" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R257" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S257" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T257" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U257" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B258" s="5" t="n">
+        <v>5947074</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E258" s="5" t="n">
+        <v>9683647822</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G258" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I258" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J258" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K258" s="5" t="n">
+        <v>9683647822</v>
+      </c>
+      <c r="L258" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="M258" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N258" s="5" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="O258" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="P258" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q258" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R258" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S258" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T258" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U258" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B259" s="5" t="n">
+        <v>5947075</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E259" s="5" t="n">
+        <v>9754837577</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G259" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I259" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="J259" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K259" s="5" t="n">
+        <v>9754837577</v>
+      </c>
+      <c r="L259" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="M259" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N259" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O259" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="P259" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q259" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R259" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S259" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T259" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U259" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B260" s="5" t="n">
+        <v>5947081</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E260" s="5" t="n">
+        <v>9656141422</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G260" s="5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="J260" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K260" s="5" t="n">
+        <v>9656141422</v>
+      </c>
+      <c r="L260" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="M260" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N260" s="5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O260" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="P260" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q260" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R260" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S260" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T260" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U260" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B261" s="5" t="n">
+        <v>5947096</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E261" s="5" t="n">
+        <v>9742351067</v>
+      </c>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I261" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J261" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K261" s="5" t="n">
+        <v>9742351067</v>
+      </c>
+      <c r="L261" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M261" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N261" s="5" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="O261" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="P261" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q261" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R261" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S261" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T261" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U261" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B262" s="5" t="n">
+        <v>5947111</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E262" s="5" t="n">
+        <v>9690582043</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="G262" s="5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J262" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="K262" s="5" t="n">
+        <v>9690582043</v>
+      </c>
+      <c r="L262" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="M262" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N262" s="5" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O262" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="P262" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q262" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R262" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S262" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T262" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U262" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B263" s="5" t="n">
+        <v>5947131</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E263" s="5" t="n">
+        <v>9100231889</v>
+      </c>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I263" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="J263" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="K263" s="5" t="n">
+        <v>9100231889</v>
+      </c>
+      <c r="L263" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M263" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N263" s="5" t="n">
+        <v>8.11</v>
+      </c>
+      <c r="O263" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="P263" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q263" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R263" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S263" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T263" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U263" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B264" s="5" t="n">
+        <v>5947132</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E264" s="5" t="n">
+        <v>8983580914</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G264" s="5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J264" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K264" s="5" t="n">
+        <v>8983580914</v>
+      </c>
+      <c r="L264" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M264" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N264" s="5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O264" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="P264" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q264" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R264" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S264" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T264" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U264" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B265" s="5" t="n">
+        <v>5947184</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E265" s="5" t="n">
+        <v>8838492812</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G265" s="5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H265" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I265" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J265" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K265" s="5" t="n">
+        <v>8838492812</v>
+      </c>
+      <c r="L265" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="M265" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N265" s="5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O265" s="5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P265" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q265" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R265" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S265" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T265" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U265" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B266" s="5" t="n">
+        <v>5947190</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E266" s="5" t="n">
+        <v>9063226411</v>
+      </c>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I266" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="J266" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="K266" s="5" t="n">
+        <v>9063226411</v>
+      </c>
+      <c r="L266" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M266" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N266" s="5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O266" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="P266" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q266" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R266" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S266" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T266" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U266" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B267" s="5" t="n">
+        <v>5947204</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E267" s="5" t="n">
+        <v>7008537372</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G267" s="5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H267" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I267" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J267" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K267" s="5" t="n">
+        <v>7008537372</v>
+      </c>
+      <c r="L267" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M267" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N267" s="5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O267" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="P267" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q267" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R267" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S267" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T267" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U267" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B268" s="5" t="n">
+        <v>5947211</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E268" s="5" t="n">
+        <v>7015517324</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G268" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="I268" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J268" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K268" s="5" t="n">
+        <v>7015517324</v>
+      </c>
+      <c r="L268" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M268" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N268" s="5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O268" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="P268" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q268" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R268" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S268" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T268" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U268" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B269" s="5" t="n">
+        <v>5947250</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E269" s="5" t="n">
+        <v>9742572959</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G269" s="5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H269" s="5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="I269" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J269" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="K269" s="5" t="n">
+        <v>9742572959</v>
+      </c>
+      <c r="L269" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M269" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N269" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O269" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="P269" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q269" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R269" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S269" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T269" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U269" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B270" s="5" t="n">
+        <v>5947259</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E270" s="5" t="n">
+        <v>9591253342</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G270" s="5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H270" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="J270" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K270" s="5" t="n">
+        <v>9591253342</v>
+      </c>
+      <c r="L270" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M270" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N270" s="5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O270" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="P270" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q270" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R270" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S270" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T270" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U270" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B271" s="5" t="n">
+        <v>5947272</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E271" s="5" t="n">
+        <v>9448213688</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="G271" s="5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J271" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K271" s="5" t="n">
+        <v>9448213688</v>
+      </c>
+      <c r="L271" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M271" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N271" s="5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="O271" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P271" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q271" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R271" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S271" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T271" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U271" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B272" s="5" t="n">
+        <v>5947293</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E272" s="5" t="n">
+        <v>8903150289</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G272" s="5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H272" s="5"/>
+      <c r="I272" s="5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J272" s="5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="K272" s="5" t="n">
+        <v>8903150289</v>
+      </c>
+      <c r="L272" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M272" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N272" s="5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O272" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="P272" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q272" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R272" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S272" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T272" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U272" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B273" s="5" t="n">
+        <v>5947294</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E273" s="5" t="n">
+        <v>7339124359</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G273" s="5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H273" s="5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I273" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J273" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K273" s="5" t="n">
+        <v>7339124359</v>
+      </c>
+      <c r="L273" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="M273" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N273" s="5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O273" s="5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="P273" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q273" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R273" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S273" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T273" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U273" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B274" s="5" t="n">
+        <v>5947326</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E274" s="5" t="n">
+        <v>8932030362</v>
+      </c>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K274" s="5" t="n">
+        <v>8932030362</v>
+      </c>
+      <c r="L274" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M274" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N274" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O274" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="P274" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q274" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R274" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S274" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T274" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U274" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B275" s="5" t="n">
+        <v>5947327</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E275" s="5" t="n">
+        <v>8103916415</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G275" s="5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H275" s="5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="I275" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="J275" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K275" s="5" t="n">
+        <v>8103916415</v>
+      </c>
+      <c r="L275" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M275" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N275" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O275" s="5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="P275" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q275" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R275" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S275" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T275" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U275" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B276" s="5" t="n">
+        <v>5947328</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E276" s="5" t="n">
+        <v>9118778428</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G276" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="J276" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K276" s="5" t="n">
+        <v>9118778428</v>
+      </c>
+      <c r="L276" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="M276" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N276" s="8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O276" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="P276" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q276" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R276" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S276" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T276" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U276" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B277" s="5" t="n">
+        <v>5947329</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E277" s="5" t="n">
+        <v>9392083881</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G277" s="5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H277" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I277" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J277" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K277" s="5" t="n">
+        <v>9392083881</v>
+      </c>
+      <c r="L277" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M277" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N277" s="5" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="O277" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="P277" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q277" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R277" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S277" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T277" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U277" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B278" s="5" t="n">
+        <v>5950026</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E278" s="5" t="n">
+        <v>8522871339</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="G278" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J278" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K278" s="5" t="n">
+        <v>8522871339</v>
+      </c>
+      <c r="L278" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M278" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N278" s="5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O278" s="5" t="s">
+        <v>1500</v>
+      </c>
+      <c r="P278" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q278" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R278" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S278" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T278" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U278" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B279" s="5" t="n">
+        <v>5947352</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E279" s="5" t="n">
+        <v>9682931298</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G279" s="5" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H279" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I279" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="J279" s="5" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K279" s="5" t="n">
+        <v>9682931298</v>
+      </c>
+      <c r="L279" s="5" t="s">
+        <v>1504</v>
+      </c>
+      <c r="M279" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N279" s="7" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="O279" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="P279" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q279" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R279" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S279" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T279" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U279" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B280" s="5" t="n">
+        <v>5947353</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E280" s="5" t="n">
+        <v>9920883640</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G280" s="5" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J280" s="5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K280" s="5" t="n">
+        <v>9920883640</v>
+      </c>
+      <c r="L280" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M280" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N280" s="5" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="O280" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="P280" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q280" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R280" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S280" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T280" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U280" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B281" s="5" t="n">
+        <v>5947371</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E281" s="5" t="n">
+        <v>9828056080</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G281" s="5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H281" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I281" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J281" s="5" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K281" s="5" t="n">
+        <v>9828056080</v>
+      </c>
+      <c r="L281" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M281" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N281" s="5" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O281" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="P281" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q281" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R281" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S281" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T281" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U281" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B282" s="5" t="n">
+        <v>5947393</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E282" s="5" t="n">
+        <v>8108320207</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G282" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="H282" s="5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J282" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K282" s="5" t="n">
+        <v>8108320207</v>
+      </c>
+      <c r="L282" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M282" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N282" s="8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="O282" s="5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="P282" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q282" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R282" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S282" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T282" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U282" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B283" s="5" t="n">
+        <v>5947411</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E283" s="5" t="n">
+        <v>8050347903</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G283" s="5" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="H283" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I283" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="J283" s="5" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K283" s="5" t="n">
+        <v>8050347903</v>
+      </c>
+      <c r="L283" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M283" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N283" s="8" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="O283" s="20" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P283" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q283" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R283" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S283" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T283" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U283" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B284" s="5" t="n">
+        <v>5947432</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E284" s="5" t="n">
+        <v>9672897025</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G284" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H284" s="5" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I284" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J284" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="K284" s="5" t="n">
+        <v>9761603139</v>
+      </c>
+      <c r="L284" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M284" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N284" s="5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O284" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="P284" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q284" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R284" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S284" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T284" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U284" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B285" s="5" t="n">
+        <v>5947482</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E285" s="5" t="n">
+        <v>8788856590</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G285" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H285" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I285" s="5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J285" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="K285" s="5" t="n">
+        <v>8788856590</v>
+      </c>
+      <c r="L285" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="M285" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N285" s="8" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="O285" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P285" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q285" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R285" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S285" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T285" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U285" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B286" s="19" t="n">
+        <v>5947502</v>
+      </c>
+      <c r="C286" s="19" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D286" s="19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E286" s="5" t="n">
+        <v>9711448744</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="G286" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H286" s="5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I286" s="19" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J286" s="19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K286" s="5" t="n">
+        <v>9711448744</v>
+      </c>
+      <c r="L286" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M286" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N286" s="5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O286" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="P286" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q286" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R286" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S286" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T286" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U286" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B287" s="5" t="n">
+        <v>5947505</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E287" s="5" t="n">
+        <v>9962466624</v>
+      </c>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H287" s="5" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I287" s="5" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J287" s="5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K287" s="5" t="n">
+        <v>9962466624</v>
+      </c>
+      <c r="L287" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="M287" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N287" s="5" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="O287" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="P287" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q287" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R287" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S287" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T287" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U287" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -19493,7 +23454,7 @@
       <formula>NOT(ISERROR(SEARCH("Acceptable",T56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T95:T101 T93 T88 T87 T85 T82 T77 T75 T72 T69:T70 T65:T67 T58 T152:T238">
+  <conditionalFormatting sqref="T95:T101 T93 T88 T87 T85 T82 T77 T75 T72 T69:T70 T65:T67 T58 T152:T287">
     <cfRule type="containsText" priority="16" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Acceptable" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("Acceptable",T58)))</formula>
     </cfRule>
@@ -19537,7 +23498,15 @@
       <formula>NOT(ISERROR(SEARCH("No Change",P199)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="13">
+  <conditionalFormatting sqref="P239:U287">
+    <cfRule type="containsText" priority="28" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="No Change" dxfId="2">
+      <formula>NOT(ISERROR(SEARCH("No Change",P239)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="29" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Change" dxfId="1">
+      <formula>NOT(ISERROR(SEARCH("Change",P239)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="15">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:U3 P4:S11 U4:U6 T5" type="list">
       <formula1>"Change,No Change"</formula1>
       <formula2>0</formula2>
@@ -19590,6 +23559,14 @@
       <formula1>"Change,No Change,Acceptable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P239:S287 U239:U287" type="list">
+      <formula1>"Change,No Change"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T239:T287" type="list">
+      <formula1>"Change,No Change,Acceptable"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J110" r:id="rId1" display="kovuru@hotmail.com"/>

--- a/input_data/resume_extractor_sheet/resume_extractor_input_sheet.xlsx
+++ b/input_data/resume_extractor_sheet/resume_extractor_input_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="1546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4399" uniqueCount="1547">
   <si>
     <t xml:space="preserve">File_name</t>
   </si>
@@ -316,6 +316,9 @@
     <t xml:space="preserve">Bank of America Expected CTC 11</t>
   </si>
   <si>
+    <t xml:space="preserve">Mumbai</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bank of America</t>
   </si>
   <si>
@@ -388,9 +391,6 @@
     <t xml:space="preserve">gauravwalia06@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Mumbai</t>
-  </si>
-  <si>
     <t xml:space="preserve">Future group New Haribhakti Business Services Reliance Retail</t>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
     <t xml:space="preserve">Maveric Systems ltd Te Connectivity (PCS Services)</t>
   </si>
   <si>
-    <t xml:space="preserve">Kolar</t>
+    <t xml:space="preserve">bengalore</t>
   </si>
   <si>
     <t xml:space="preserve">Maveric Systems</t>
@@ -2662,6 +2662,9 @@
     <t xml:space="preserve">Bayer Crop Science Limited</t>
   </si>
   <si>
+    <t xml:space="preserve">Eluru</t>
+  </si>
+  <si>
     <t xml:space="preserve">RaniRavilla.docx</t>
   </si>
   <si>
@@ -2767,7 +2770,7 @@
     <t xml:space="preserve">K.J.SUMANTH KUMAR</t>
   </si>
   <si>
-    <t xml:space="preserve">Chittoor</t>
+    <t xml:space="preserve">Sri City</t>
   </si>
   <si>
     <t xml:space="preserve">M/s. Bergen Pipe Supports (India) Pvt. Ltd</t>
@@ -3370,7 +3373,7 @@
     <t xml:space="preserve">aviswanath1998@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">USA</t>
+    <t xml:space="preserve">Suwanee</t>
   </si>
   <si>
     <t xml:space="preserve">Sunlight Technologies</t>
@@ -4129,7 +4132,7 @@
     <t xml:space="preserve">RAJESH KUSHWAHA</t>
   </si>
   <si>
-    <t xml:space="preserve">UK</t>
+    <t xml:space="preserve">Coventry</t>
   </si>
   <si>
     <t xml:space="preserve">ashish_lagishetty.docx</t>
@@ -4207,7 +4210,7 @@
     <t xml:space="preserve">MARIA CRISTINA POLANCOS</t>
   </si>
   <si>
-    <t xml:space="preserve">PHILIPPINES</t>
+    <t xml:space="preserve">QUEZON CITY</t>
   </si>
   <si>
     <t xml:space="preserve">SMARTFOXDATA</t>
@@ -4670,7 +4673,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4750,6 +4753,12 @@
       <name val="aakar"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="aakar"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4865,7 +4874,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4947,6 +4956,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5103,15 +5116,15 @@
   </sheetPr>
   <dimension ref="A1:U287"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F219" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V19" activeCellId="0" sqref="V19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J259" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L272" activeCellId="0" sqref="L272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.18"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.46"/>
@@ -6106,14 +6119,14 @@
         <v>7620137783</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="8" t="n">
         <v>4.3</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>21</v>
@@ -6136,16 +6149,16 @@
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>5692229</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>9492730050</v>
@@ -6157,13 +6170,13 @@
         <v>10.8</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>9492730050</v>
@@ -6199,16 +6212,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>5692242</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>9550391472</v>
@@ -6220,13 +6233,13 @@
         <v>4.6</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>9550391472</v>
@@ -6239,7 +6252,7 @@
         <v>4.7</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>21</v>
@@ -6262,16 +6275,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>5692265</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>8925416385</v>
@@ -6281,13 +6294,13 @@
         <v>14.6</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>8925416385</v>
@@ -6300,7 +6313,7 @@
         <v>10.8</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>22</v>
@@ -6323,34 +6336,34 @@
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>5692315</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>9761698961</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>15.3</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>9761698961</v>
@@ -6363,7 +6376,7 @@
         <v>15.9</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>21</v>
@@ -6386,22 +6399,22 @@
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>5692317</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>9811846795</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>17.4</v>
@@ -6410,16 +6423,16 @@
         <v>123</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>9811846795</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5" t="n">
@@ -6651,7 +6664,7 @@
         <v>9096860469</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>2.6</v>
@@ -6669,7 +6682,7 @@
         <v>9096860469</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5" t="n">
@@ -6905,7 +6918,7 @@
         <v>9920952984</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>10.6</v>
@@ -6923,7 +6936,7 @@
         <v>9920952984</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5" t="n">
@@ -6986,7 +6999,7 @@
         <v>9686282250</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5" t="n">
@@ -8862,7 +8875,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>334</v>
@@ -8883,7 +8896,7 @@
         <v>5.1</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P60" s="5" t="s">
         <v>21</v>
@@ -9112,7 +9125,7 @@
         <v>9771908503</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>1.9</v>
@@ -9130,7 +9143,7 @@
         <v>9771908503</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M64" s="5" t="s">
         <v>307</v>
@@ -9752,7 +9765,7 @@
         <v>9819316655</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G74" s="5" t="n">
         <v>12.7</v>
@@ -9770,7 +9783,7 @@
         <v>9819316655</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M74" s="5" t="s">
         <v>317</v>
@@ -9943,7 +9956,7 @@
         <v>9777509163</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G77" s="5" t="n">
         <v>4.6</v>
@@ -9961,7 +9974,7 @@
         <v>9777509163</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M77" s="5" t="s">
         <v>317</v>
@@ -10025,7 +10038,9 @@
       <c r="K78" s="5" t="n">
         <v>9789819526</v>
       </c>
-      <c r="L78" s="5"/>
+      <c r="L78" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M78" s="12" t="s">
         <v>307</v>
       </c>
@@ -10201,7 +10216,7 @@
         <v>7202788533</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G81" s="5" t="n">
         <v>13.8</v>
@@ -10219,7 +10234,7 @@
         <v>7202788533</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M81" s="5" t="s">
         <v>317</v>
@@ -10284,7 +10299,7 @@
         <v>9953991892</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="M82" s="5" t="s">
         <v>317</v>
@@ -10293,7 +10308,7 @@
         <v>4.7</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P82" s="5" t="s">
         <v>21</v>
@@ -10331,7 +10346,7 @@
         <v>9650124358</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G83" s="5" t="n">
         <v>9.9</v>
@@ -10349,7 +10364,7 @@
         <v>9650124358</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M83" s="5" t="s">
         <v>307</v>
@@ -10971,7 +10986,7 @@
         <v>9831479781</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G93" s="5" t="n">
         <v>19.3</v>
@@ -11036,7 +11051,7 @@
         <v>9492077799</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G94" s="5" t="n">
         <v>4.6</v>
@@ -11101,7 +11116,7 @@
         <v>8447104076</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G95" s="5" t="n">
         <v>4.6</v>
@@ -11119,7 +11134,7 @@
         <v>8447104076</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M95" s="5" t="s">
         <v>307</v>
@@ -11357,7 +11372,7 @@
         <v>8097899391</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G99" s="5" t="n">
         <v>4.6</v>
@@ -11548,7 +11563,7 @@
         <v>7760975901</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G102" s="5" t="n">
         <v>38.5</v>
@@ -11631,7 +11646,7 @@
         <v>7972246447</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>134</v>
+        <v>344</v>
       </c>
       <c r="M103" s="5" t="s">
         <v>317</v>
@@ -12554,7 +12569,7 @@
         <v>11.6</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>638</v>
@@ -12573,7 +12588,7 @@
         <v>10.9</v>
       </c>
       <c r="O118" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P118" s="5" t="s">
         <v>21</v>
@@ -12867,7 +12882,7 @@
         <v>9958696655</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G123" s="5" t="n">
         <v>17.3</v>
@@ -13623,7 +13638,7 @@
         <v>9689182899</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G135" s="5" t="n">
         <v>12</v>
@@ -13641,7 +13656,7 @@
         <v>9689182899</v>
       </c>
       <c r="L135" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M135" s="5" t="s">
         <v>613</v>
@@ -13812,7 +13827,7 @@
         <v>8135499367</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G138" s="5" t="n">
         <v>11.3</v>
@@ -13954,7 +13969,7 @@
         <v>8095933313</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M140" s="5" t="s">
         <v>317</v>
@@ -14773,7 +14788,7 @@
         <v>9033102252</v>
       </c>
       <c r="L153" s="5" t="s">
-        <v>821</v>
+        <v>59</v>
       </c>
       <c r="M153" s="5" t="s">
         <v>317</v>
@@ -14879,7 +14894,7 @@
         <v>8762671586</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G155" s="5" t="n">
         <v>26.8</v>
@@ -15072,7 +15087,7 @@
         <v>910</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G158" s="5" t="n">
         <v>11</v>
@@ -15267,7 +15282,7 @@
         <v>8263009596</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G161" s="5" t="n">
         <v>28.4</v>
@@ -15332,7 +15347,7 @@
         <v>911</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G162" s="5" t="n">
         <v>15.8</v>
@@ -15474,7 +15489,7 @@
         <v>9392822472</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="M164" s="5" t="s">
         <v>317</v>
@@ -15506,16 +15521,16 @@
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B165" s="5" t="n">
         <v>5853455</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E165" s="5" t="n">
         <v>8792418915</v>
@@ -15527,13 +15542,13 @@
         <v>26</v>
       </c>
       <c r="H165" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="I165" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="J165" s="5" t="s">
         <v>883</v>
-      </c>
-      <c r="I165" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="J165" s="5" t="s">
-        <v>882</v>
       </c>
       <c r="K165" s="5" t="n">
         <v>8792418915</v>
@@ -15546,7 +15561,7 @@
         <v>7.1</v>
       </c>
       <c r="O165" s="5" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="P165" s="5" t="s">
         <v>21</v>
@@ -15569,16 +15584,16 @@
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B166" s="5" t="n">
         <v>5853791</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E166" s="16" t="n">
         <v>95</v>
@@ -15588,13 +15603,13 @@
         <v>5</v>
       </c>
       <c r="H166" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="J166" s="5" t="s">
         <v>888</v>
-      </c>
-      <c r="I166" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="J166" s="5" t="s">
-        <v>887</v>
       </c>
       <c r="K166" s="5" t="n">
         <v>7450892149</v>
@@ -15607,7 +15622,7 @@
         <v>5.5</v>
       </c>
       <c r="O166" s="5" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="P166" s="5" t="s">
         <v>21</v>
@@ -15630,16 +15645,16 @@
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B167" s="5" t="n">
         <v>5854579</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E167" s="5" t="n">
         <v>8951362595</v>
@@ -15651,13 +15666,13 @@
         <v>26</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="J167" s="5" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="K167" s="5" t="n">
         <v>8951362595</v>
@@ -15672,7 +15687,7 @@
         <v>7.1</v>
       </c>
       <c r="O167" s="5" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P167" s="5" t="s">
         <v>21</v>
@@ -15695,22 +15710,22 @@
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B168" s="5" t="n">
         <v>5856541</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E168" s="5" t="n">
         <v>9136099989</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G168" s="5" t="n">
         <v>26</v>
@@ -15719,16 +15734,16 @@
         <v>198</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="K168" s="5" t="n">
         <v>9136099989</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M168" s="5" t="s">
         <v>317</v>
@@ -15760,16 +15775,16 @@
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B169" s="5" t="n">
         <v>5844405</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E169" s="5" t="n">
         <v>9886239098</v>
@@ -15779,13 +15794,13 @@
         <v>12</v>
       </c>
       <c r="H169" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="I169" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="J169" s="5" t="s">
         <v>902</v>
-      </c>
-      <c r="I169" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="J169" s="5" t="s">
-        <v>901</v>
       </c>
       <c r="K169" s="5" t="n">
         <v>9886239098</v>
@@ -15800,7 +15815,7 @@
         <v>12</v>
       </c>
       <c r="O169" s="5" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="P169" s="5" t="s">
         <v>21</v>
@@ -15823,16 +15838,16 @@
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B170" s="5" t="n">
         <v>5844522</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E170" s="5" t="n">
         <v>7838521500</v>
@@ -15844,19 +15859,19 @@
         <v>8.2</v>
       </c>
       <c r="H170" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="J170" s="5" t="s">
         <v>908</v>
-      </c>
-      <c r="I170" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="J170" s="5" t="s">
-        <v>907</v>
       </c>
       <c r="K170" s="5" t="n">
         <v>7838521500</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="M170" s="5" t="s">
         <v>317</v>
@@ -15865,7 +15880,7 @@
         <v>8.2</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="P170" s="5" t="s">
         <v>21</v>
@@ -15888,40 +15903,40 @@
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B171" s="5" t="n">
         <v>5844531</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E171" s="5" t="n">
         <v>9014372124</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G171" s="5" t="n">
         <v>15</v>
       </c>
       <c r="H171" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="I171" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="J171" s="5" t="s">
         <v>913</v>
-      </c>
-      <c r="I171" s="5" t="s">
-        <v>914</v>
-      </c>
-      <c r="J171" s="5" t="s">
-        <v>912</v>
       </c>
       <c r="K171" s="5" t="n">
         <v>9014372124</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="M171" s="5" t="s">
         <v>317</v>
@@ -15930,7 +15945,7 @@
         <v>12.4</v>
       </c>
       <c r="O171" s="5" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="P171" s="5" t="s">
         <v>21</v>
@@ -15953,16 +15968,16 @@
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B172" s="5" t="n">
         <v>5844616</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E172" s="5" t="n">
         <v>8084244107</v>
@@ -15974,13 +15989,13 @@
         <v>4.5</v>
       </c>
       <c r="H172" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="J172" s="5" t="s">
         <v>920</v>
-      </c>
-      <c r="I172" s="5" t="s">
-        <v>918</v>
-      </c>
-      <c r="J172" s="5" t="s">
-        <v>919</v>
       </c>
       <c r="K172" s="5" t="n">
         <v>8084244107</v>
@@ -15995,7 +16010,7 @@
         <v>3.1</v>
       </c>
       <c r="O172" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="P172" s="5" t="s">
         <v>21</v>
@@ -16018,40 +16033,40 @@
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B173" s="5" t="n">
         <v>5844777</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E173" s="16" t="n">
         <v>9876636168</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G173" s="5" t="n">
         <v>2.2</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="K173" s="5" t="n">
         <v>6376636168</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="M173" s="5" t="s">
         <v>317</v>
@@ -16060,7 +16075,7 @@
         <v>2.2</v>
       </c>
       <c r="O173" s="5" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="P173" s="5" t="s">
         <v>21</v>
@@ -16083,16 +16098,16 @@
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B174" s="5" t="n">
         <v>5845146</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E174" s="16" t="n">
         <v>9838490265</v>
@@ -16104,13 +16119,13 @@
         <v>0.3</v>
       </c>
       <c r="H174" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="J174" s="17" t="s">
         <v>932</v>
-      </c>
-      <c r="I174" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="J174" s="17" t="s">
-        <v>931</v>
       </c>
       <c r="K174" s="5" t="n">
         <v>8838490265</v>
@@ -16123,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="O174" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="P174" s="5" t="s">
         <v>21</v>
@@ -16146,40 +16161,40 @@
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B175" s="5" t="n">
         <v>5845382</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E175" s="5" t="n">
         <v>7506016039</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G175" s="5" t="n">
         <v>12.8</v>
       </c>
       <c r="H175" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="J175" s="5" t="s">
         <v>937</v>
-      </c>
-      <c r="I175" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="J175" s="5" t="s">
-        <v>936</v>
       </c>
       <c r="K175" s="5" t="n">
         <v>7506016039</v>
       </c>
       <c r="L175" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M175" s="5" t="s">
         <v>317</v>
@@ -16188,7 +16203,7 @@
         <v>10.7</v>
       </c>
       <c r="O175" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="P175" s="5" t="s">
         <v>21</v>
@@ -16211,40 +16226,40 @@
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B176" s="5" t="n">
         <v>5845420</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E176" s="5" t="n">
         <v>9741974708</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G176" s="5" t="n">
         <v>3.4</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="K176" s="5" t="n">
         <v>9741974708</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="M176" s="5" t="s">
         <v>317</v>
@@ -16253,7 +16268,7 @@
         <v>3.5</v>
       </c>
       <c r="O176" s="5" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="P176" s="5" t="s">
         <v>21</v>
@@ -16276,16 +16291,16 @@
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B177" s="5" t="n">
         <v>5845498</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E177" s="5" t="n">
         <v>9643501850</v>
@@ -16297,13 +16312,13 @@
         <v>4.4</v>
       </c>
       <c r="H177" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="J177" s="5" t="s">
         <v>948</v>
-      </c>
-      <c r="I177" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="J177" s="5" t="s">
-        <v>947</v>
       </c>
       <c r="K177" s="5" t="n">
         <v>9643501850</v>
@@ -16318,7 +16333,7 @@
         <v>4.5</v>
       </c>
       <c r="O177" s="5" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="P177" s="5" t="s">
         <v>21</v>
@@ -16341,40 +16356,40 @@
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B178" s="5" t="n">
         <v>5845503</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E178" s="5" t="n">
         <v>9603086109</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G178" s="5" t="n">
         <v>2.9</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="J178" s="17" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="K178" s="5" t="n">
         <v>9603086109</v>
       </c>
       <c r="L178" s="5" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="M178" s="5" t="s">
         <v>317</v>
@@ -16383,7 +16398,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="P178" s="5" t="s">
         <v>21</v>
@@ -16406,40 +16421,40 @@
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B179" s="5" t="n">
         <v>5845506</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E179" s="5" t="n">
         <v>8483826890</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G179" s="5" t="n">
         <v>10.9</v>
       </c>
       <c r="H179" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="I179" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="J179" s="5" t="s">
         <v>958</v>
-      </c>
-      <c r="I179" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="J179" s="5" t="s">
-        <v>957</v>
       </c>
       <c r="K179" s="5" t="n">
         <v>8483826890</v>
       </c>
       <c r="L179" s="5" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="M179" s="5" t="s">
         <v>317</v>
@@ -16448,7 +16463,7 @@
         <v>10.11</v>
       </c>
       <c r="O179" s="5" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="P179" s="5" t="s">
         <v>21</v>
@@ -16471,16 +16486,16 @@
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B180" s="5" t="n">
         <v>5845507</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E180" s="5" t="n">
         <v>9344657767</v>
@@ -16492,13 +16507,13 @@
         <v>4.2</v>
       </c>
       <c r="H180" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="J180" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="I180" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="J180" s="5" t="s">
-        <v>964</v>
       </c>
       <c r="K180" s="5" t="n">
         <v>9344657767</v>
@@ -16513,7 +16528,7 @@
         <v>4.2</v>
       </c>
       <c r="O180" s="5" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="P180" s="5" t="s">
         <v>21</v>
@@ -16536,16 +16551,16 @@
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B181" s="5" t="n">
         <v>5845525</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E181" s="5" t="n">
         <v>6291498706</v>
@@ -16557,13 +16572,13 @@
         <v>15.3</v>
       </c>
       <c r="H181" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="J181" s="5" t="s">
         <v>970</v>
-      </c>
-      <c r="I181" s="5" t="s">
-        <v>971</v>
-      </c>
-      <c r="J181" s="5" t="s">
-        <v>969</v>
       </c>
       <c r="K181" s="5" t="n">
         <v>6291498706</v>
@@ -16578,7 +16593,7 @@
         <v>15.5</v>
       </c>
       <c r="O181" s="5" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="P181" s="5" t="s">
         <v>21</v>
@@ -16601,40 +16616,40 @@
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B182" s="5" t="n">
         <v>5845528</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E182" s="5" t="n">
         <v>9699332822</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G182" s="5" t="n">
         <v>4.2</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="K182" s="5" t="n">
         <v>9699332822</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M182" s="5" t="s">
         <v>317</v>
@@ -16643,7 +16658,7 @@
         <v>6.2</v>
       </c>
       <c r="O182" s="5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="P182" s="5" t="s">
         <v>21</v>
@@ -16666,16 +16681,16 @@
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B183" s="5" t="n">
         <v>5845532</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E183" s="5" t="n">
         <v>9036114908</v>
@@ -16685,13 +16700,13 @@
         <v>4.3</v>
       </c>
       <c r="H183" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="I183" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="J183" s="5" t="s">
         <v>982</v>
-      </c>
-      <c r="I183" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="J183" s="5" t="s">
-        <v>981</v>
       </c>
       <c r="K183" s="5" t="n">
         <v>9036114908</v>
@@ -16706,7 +16721,7 @@
         <v>4.3</v>
       </c>
       <c r="O183" s="5" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="P183" s="5" t="s">
         <v>21</v>
@@ -16729,16 +16744,16 @@
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B184" s="5" t="n">
         <v>5845533</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E184" s="5" t="n">
         <v>7984066404</v>
@@ -16750,13 +16765,13 @@
         <v>9.2</v>
       </c>
       <c r="H184" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="J184" s="5" t="s">
         <v>987</v>
-      </c>
-      <c r="I184" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="J184" s="5" t="s">
-        <v>986</v>
       </c>
       <c r="K184" s="5" t="n">
         <v>7984066404</v>
@@ -16771,7 +16786,7 @@
         <v>9.2</v>
       </c>
       <c r="O184" s="5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="P184" s="5" t="s">
         <v>21</v>
@@ -16794,34 +16809,34 @@
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B185" s="5" t="n">
         <v>5845549</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E185" s="5" t="n">
         <v>8840398816</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G185" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="J185" s="5" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="K185" s="5" t="n">
         <v>8840398816</v>
@@ -16834,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="O185" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="P185" s="5" t="s">
         <v>21</v>
@@ -16857,34 +16872,34 @@
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B186" s="5" t="n">
         <v>5845576</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E186" s="5" t="n">
         <v>9121645063</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G186" s="5" t="n">
         <v>3.6</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="J186" s="5" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="K186" s="5" t="n">
         <v>9121645063</v>
@@ -16899,7 +16914,7 @@
         <v>3.7</v>
       </c>
       <c r="O186" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="P186" s="5" t="s">
         <v>21</v>
@@ -16922,16 +16937,16 @@
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B187" s="5" t="n">
         <v>5845704</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E187" s="5" t="n">
         <v>9676378263</v>
@@ -16943,13 +16958,13 @@
         <v>3.6</v>
       </c>
       <c r="H187" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I187" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J187" s="5" t="s">
         <v>1005</v>
-      </c>
-      <c r="I187" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J187" s="5" t="s">
-        <v>1004</v>
       </c>
       <c r="K187" s="5" t="n">
         <v>9676378263</v>
@@ -16964,7 +16979,7 @@
         <v>3.6</v>
       </c>
       <c r="O187" s="5" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="P187" s="5" t="s">
         <v>21</v>
@@ -16987,16 +17002,16 @@
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B188" s="5" t="n">
         <v>5845714</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E188" s="5" t="n">
         <v>9741495415</v>
@@ -17006,13 +17021,13 @@
         <v>4.2</v>
       </c>
       <c r="H188" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J188" s="5" t="s">
         <v>1010</v>
-      </c>
-      <c r="I188" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="J188" s="5" t="s">
-        <v>1009</v>
       </c>
       <c r="K188" s="5" t="n">
         <v>9741495415</v>
@@ -17025,7 +17040,7 @@
         <v>4.3</v>
       </c>
       <c r="O188" s="18" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="P188" s="5" t="s">
         <v>21</v>
@@ -17048,16 +17063,16 @@
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B189" s="5" t="n">
         <v>5845719</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E189" s="5" t="n">
         <v>6305359590</v>
@@ -17067,13 +17082,13 @@
         <v>7.6</v>
       </c>
       <c r="H189" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I189" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J189" s="5" t="s">
         <v>1015</v>
-      </c>
-      <c r="I189" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J189" s="5" t="s">
-        <v>1014</v>
       </c>
       <c r="K189" s="5" t="n">
         <v>6305359590</v>
@@ -17109,16 +17124,16 @@
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B190" s="5" t="n">
         <v>5845722</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E190" s="5" t="n">
         <v>8968347956</v>
@@ -17130,13 +17145,13 @@
         <v>4.7</v>
       </c>
       <c r="H190" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J190" s="5" t="s">
         <v>1019</v>
-      </c>
-      <c r="I190" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J190" s="5" t="s">
-        <v>1018</v>
       </c>
       <c r="K190" s="5" t="n">
         <v>8968347956</v>
@@ -17151,7 +17166,7 @@
         <v>2</v>
       </c>
       <c r="O190" s="5" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="P190" s="5" t="s">
         <v>21</v>
@@ -17174,39 +17189,41 @@
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B191" s="5" t="n">
         <v>5845723</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E191" s="5" t="n">
         <v>8124266538</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G191" s="5" t="n">
         <v>2.8</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="J191" s="5" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="K191" s="5" t="n">
         <v>8124266538</v>
       </c>
-      <c r="L191" s="5"/>
+      <c r="L191" s="5" t="s">
+        <v>358</v>
+      </c>
       <c r="M191" s="5" t="s">
         <v>817</v>
       </c>
@@ -17237,16 +17254,16 @@
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B192" s="5" t="n">
         <v>5845811</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E192" s="5" t="n">
         <v>7008150362</v>
@@ -17258,13 +17275,13 @@
         <v>1.6</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="K192" s="5" t="n">
         <v>7008150362</v>
@@ -17302,40 +17319,40 @@
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B193" s="5" t="n">
         <v>5845816</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E193" s="5" t="n">
         <v>9548989965</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G193" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="J193" s="5" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="K193" s="5" t="n">
         <v>9548989965</v>
       </c>
       <c r="L193" s="5" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="M193" s="5" t="s">
         <v>317</v>
@@ -17344,7 +17361,7 @@
         <v>1</v>
       </c>
       <c r="O193" s="5" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="P193" s="5" t="s">
         <v>21</v>
@@ -17367,34 +17384,34 @@
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B194" s="5" t="n">
         <v>5845876</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E194" s="16" t="n">
         <v>9810877423</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G194" s="5" t="n">
         <v>2.11</v>
       </c>
       <c r="H194" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J194" s="5" t="s">
         <v>1039</v>
-      </c>
-      <c r="I194" s="5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="J194" s="5" t="s">
-        <v>1038</v>
       </c>
       <c r="K194" s="5" t="n">
         <v>8910877423</v>
@@ -17407,7 +17424,7 @@
         <v>2.11</v>
       </c>
       <c r="O194" s="5" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="P194" s="5" t="s">
         <v>21</v>
@@ -17430,34 +17447,34 @@
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B195" s="5" t="n">
         <v>5845879</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E195" s="5" t="n">
         <v>7440307488</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G195" s="5" t="n">
         <v>4</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="K195" s="5" t="n">
         <v>7440307488</v>
@@ -17470,7 +17487,7 @@
         <v>4.5</v>
       </c>
       <c r="O195" s="5" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="P195" s="5" t="s">
         <v>21</v>
@@ -17493,16 +17510,16 @@
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B196" s="5" t="n">
         <v>5845885</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E196" s="5" t="n">
         <v>8867573461</v>
@@ -17514,13 +17531,13 @@
         <v>13.3</v>
       </c>
       <c r="H196" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J196" s="5" t="s">
         <v>1049</v>
-      </c>
-      <c r="I196" s="5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J196" s="5" t="s">
-        <v>1048</v>
       </c>
       <c r="K196" s="5" t="n">
         <v>8867573461</v>
@@ -17535,7 +17552,7 @@
         <v>13.5</v>
       </c>
       <c r="O196" s="5" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="P196" s="5" t="s">
         <v>21</v>
@@ -17558,34 +17575,34 @@
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B197" s="5" t="n">
         <v>5845886</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E197" s="5" t="n">
         <v>9952021276</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G197" s="5" t="n">
         <v>17.1</v>
       </c>
       <c r="H197" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I197" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J197" s="5" t="s">
         <v>1054</v>
-      </c>
-      <c r="I197" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J197" s="5" t="s">
-        <v>1053</v>
       </c>
       <c r="K197" s="5" t="n">
         <v>9952021276</v>
@@ -17598,7 +17615,7 @@
         <v>18.7</v>
       </c>
       <c r="O197" s="5" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="P197" s="5" t="s">
         <v>21</v>
@@ -17621,34 +17638,34 @@
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B198" s="5" t="n">
         <v>5845923</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E198" s="5" t="n">
         <v>9729602232</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G198" s="5" t="n">
         <v>7.8</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="K198" s="5" t="n">
         <v>9729602232</v>
@@ -17661,7 +17678,7 @@
         <v>7.11</v>
       </c>
       <c r="O198" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="P198" s="5" t="s">
         <v>21</v>
@@ -17684,16 +17701,16 @@
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B199" s="5" t="n">
         <v>5938069</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E199" s="5" t="n">
         <v>7265950394</v>
@@ -17704,10 +17721,10 @@
       </c>
       <c r="H199" s="5"/>
       <c r="I199" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J199" s="5" t="s">
         <v>1065</v>
-      </c>
-      <c r="J199" s="5" t="s">
-        <v>1064</v>
       </c>
       <c r="K199" s="5" t="n">
         <v>7265950394</v>
@@ -17720,7 +17737,7 @@
         <v>0</v>
       </c>
       <c r="O199" s="5" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="P199" s="5" t="s">
         <v>22</v>
@@ -17743,16 +17760,16 @@
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B200" s="5" t="n">
         <v>5939313</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E200" s="5" t="n">
         <v>9848033073</v>
@@ -17764,13 +17781,13 @@
         <v>24.8</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="J200" s="5" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="K200" s="5" t="n">
         <v>9848033073</v>
@@ -17785,7 +17802,7 @@
         <v>24.9</v>
       </c>
       <c r="O200" s="5" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="P200" s="5" t="s">
         <v>21</v>
@@ -17808,40 +17825,40 @@
     </row>
     <row r="201" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B201" s="5" t="n">
         <v>5939551</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E201" s="5" t="n">
         <v>4082212420</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="G201" s="5" t="n">
         <v>35</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J201" s="5" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="K201" s="5" t="n">
         <v>4082212420</v>
       </c>
       <c r="L201" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="M201" s="5" t="s">
         <v>317</v>
@@ -17850,7 +17867,7 @@
         <v>34</v>
       </c>
       <c r="O201" s="5" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="P201" s="5" t="s">
         <v>21</v>
@@ -17873,40 +17890,40 @@
     </row>
     <row r="202" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B202" s="5" t="n">
         <v>5939713</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E202" s="5" t="n">
         <v>9960890968</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G202" s="5" t="n">
         <v>23.3</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="J202" s="5" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="K202" s="5" t="n">
         <v>9960890968</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="M202" s="5" t="s">
         <v>317</v>
@@ -17915,7 +17932,7 @@
         <v>23.3</v>
       </c>
       <c r="O202" s="5" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="P202" s="5" t="s">
         <v>21</v>
@@ -17938,16 +17955,16 @@
     </row>
     <row r="203" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B203" s="19" t="n">
         <v>5939970</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E203" s="5" t="n">
         <v>9885214500</v>
@@ -17959,13 +17976,13 @@
         <v>29.7</v>
       </c>
       <c r="H203" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I203" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J203" s="5" t="s">
         <v>1090</v>
-      </c>
-      <c r="I203" s="5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J203" s="5" t="s">
-        <v>1089</v>
       </c>
       <c r="K203" s="5" t="n">
         <v>9885214500</v>
@@ -17980,7 +17997,7 @@
         <v>29.8</v>
       </c>
       <c r="O203" s="5" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="P203" s="5" t="s">
         <v>21</v>
@@ -18003,16 +18020,16 @@
     </row>
     <row r="204" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B204" s="5" t="n">
         <v>5938855</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E204" s="5" t="n">
         <v>932129366</v>
@@ -18024,13 +18041,13 @@
         <v>1.7</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="K204" s="5" t="n">
         <v>9573443647</v>
@@ -18045,7 +18062,7 @@
         <v>1.9</v>
       </c>
       <c r="O204" s="5" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="P204" s="5" t="s">
         <v>21</v>
@@ -18068,40 +18085,40 @@
     </row>
     <row r="205" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B205" s="5" t="n">
         <v>5939012</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E205" s="5" t="n">
         <v>918819645</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="G205" s="5" t="n">
         <v>18.4</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="K205" s="5" t="n">
         <v>9923107500</v>
       </c>
       <c r="L205" s="5" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="M205" s="5" t="s">
         <v>317</v>
@@ -18110,7 +18127,7 @@
         <v>18.5</v>
       </c>
       <c r="O205" s="5" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="P205" s="5" t="s">
         <v>21</v>
@@ -18133,40 +18150,40 @@
     </row>
     <row r="206" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B206" s="5" t="n">
         <v>5939161</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E206" s="5" t="n">
         <v>1116488556</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="G206" s="5" t="n">
         <v>5</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="J206" s="5" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="K206" s="5" t="n">
         <v>1116488556</v>
       </c>
       <c r="L206" s="5" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="M206" s="5" t="s">
         <v>317</v>
@@ -18175,7 +18192,7 @@
         <v>4.5</v>
       </c>
       <c r="O206" s="5" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="P206" s="5" t="s">
         <v>21</v>
@@ -18198,40 +18215,40 @@
     </row>
     <row r="207" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B207" s="5" t="n">
         <v>5939765</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E207" s="5" t="n">
         <v>912265276</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G207" s="5" t="n">
         <v>3</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="J207" s="5" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="K207" s="5" t="n">
         <v>8608919869</v>
       </c>
       <c r="L207" s="5" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="M207" s="5" t="s">
         <v>317</v>
@@ -18240,7 +18257,7 @@
         <v>3.1</v>
       </c>
       <c r="O207" s="5" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P207" s="5" t="s">
         <v>21</v>
@@ -18263,16 +18280,16 @@
     </row>
     <row r="208" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B208" s="5" t="n">
         <v>5939819</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E208" s="5" t="n">
         <v>192021202</v>
@@ -18284,13 +18301,13 @@
         <v>6.5</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="J208" s="5" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="K208" s="5" t="n">
         <v>9666619925</v>
@@ -18305,7 +18322,7 @@
         <v>6.5</v>
       </c>
       <c r="O208" s="5" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="P208" s="5" t="s">
         <v>21</v>
@@ -18328,40 +18345,40 @@
     </row>
     <row r="209" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B209" s="5" t="n">
         <v>5938891</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E209" s="5" t="n">
         <v>9718385107</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G209" s="5" t="n">
         <v>14</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J209" s="5" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="K209" s="5" t="n">
         <v>9718385107</v>
       </c>
       <c r="L209" s="5" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="M209" s="5" t="s">
         <v>317</v>
@@ -18370,7 +18387,7 @@
         <v>15.3</v>
       </c>
       <c r="O209" s="5" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="P209" s="5" t="s">
         <v>21</v>
@@ -18393,16 +18410,16 @@
     </row>
     <row r="210" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B210" s="5" t="n">
         <v>5938065</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E210" s="5" t="n">
         <v>8143314145</v>
@@ -18415,10 +18432,10 @@
       </c>
       <c r="H210" s="5"/>
       <c r="I210" s="5" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="J210" s="5" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="K210" s="5" t="n">
         <v>8143314145</v>
@@ -18431,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="O210" s="5" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="P210" s="5" t="s">
         <v>21</v>
@@ -18454,16 +18471,16 @@
     </row>
     <row r="211" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B211" s="5" t="n">
         <v>5938066</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E211" s="5" t="n">
         <v>9739022322</v>
@@ -18476,10 +18493,10 @@
       </c>
       <c r="H211" s="5"/>
       <c r="I211" s="5" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="J211" s="5" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="K211" s="5" t="n">
         <v>9739022322</v>
@@ -18494,7 +18511,7 @@
         <v>22.7</v>
       </c>
       <c r="O211" s="5" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="P211" s="5" t="s">
         <v>21</v>
@@ -18517,40 +18534,40 @@
     </row>
     <row r="212" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B212" s="5" t="n">
         <v>5938071</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E212" s="5" t="n">
         <v>9783827881</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="G212" s="5" t="n">
         <v>4.9</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="J212" s="5" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="K212" s="5" t="n">
         <v>9783827881</v>
       </c>
       <c r="L212" s="5" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="M212" s="5" t="s">
         <v>317</v>
@@ -18559,7 +18576,7 @@
         <v>4.9</v>
       </c>
       <c r="O212" s="5" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="P212" s="5" t="s">
         <v>21</v>
@@ -18582,34 +18599,34 @@
     </row>
     <row r="213" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B213" s="5" t="n">
         <v>5938073</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="E213" s="5" t="n">
         <v>8884503029</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="G213" s="5" t="n">
         <v>11.1</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="J213" s="5" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="K213" s="5" t="n">
         <v>8884503029</v>
@@ -18647,16 +18664,16 @@
     </row>
     <row r="214" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B214" s="5" t="n">
         <v>5940236</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E214" s="5" t="n">
         <v>9025142010</v>
@@ -18667,10 +18684,10 @@
       </c>
       <c r="H214" s="5"/>
       <c r="I214" s="5" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="J214" s="5" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="K214" s="5" t="n">
         <v>9025142010</v>
@@ -18704,16 +18721,16 @@
     </row>
     <row r="215" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B215" s="5" t="n">
         <v>5938074</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="E215" s="5" t="n">
         <v>9403546397</v>
@@ -18725,13 +18742,13 @@
         <v>11.9</v>
       </c>
       <c r="H215" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J215" s="5" t="s">
         <v>1159</v>
-      </c>
-      <c r="I215" s="5" t="s">
-        <v>1157</v>
-      </c>
-      <c r="J215" s="5" t="s">
-        <v>1158</v>
       </c>
       <c r="K215" s="5" t="n">
         <v>9403546397</v>
@@ -18746,7 +18763,7 @@
         <v>11.11</v>
       </c>
       <c r="O215" s="5" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="P215" s="5" t="s">
         <v>21</v>
@@ -18769,16 +18786,16 @@
     </row>
     <row r="216" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B216" s="5" t="n">
         <v>5938080</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E216" s="5" t="n">
         <v>9100360641</v>
@@ -18790,13 +18807,13 @@
         <v>3</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="K216" s="5" t="n">
         <v>9100360641</v>
@@ -18811,7 +18828,7 @@
         <v>3.6</v>
       </c>
       <c r="O216" s="5" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="P216" s="5" t="s">
         <v>21</v>
@@ -18834,16 +18851,16 @@
     </row>
     <row r="217" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B217" s="5" t="n">
         <v>5938081</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E217" s="5" t="n">
         <v>7411291239</v>
@@ -18856,10 +18873,10 @@
       </c>
       <c r="H217" s="5"/>
       <c r="I217" s="5" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="K217" s="5" t="n">
         <v>7411291239</v>
@@ -18895,16 +18912,16 @@
     </row>
     <row r="218" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B218" s="5" t="n">
         <v>5938088</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="E218" s="5" t="n">
         <v>9831974245</v>
@@ -18916,13 +18933,13 @@
         <v>10.8</v>
       </c>
       <c r="H218" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J218" s="5" t="s">
         <v>1173</v>
-      </c>
-      <c r="I218" s="5" t="s">
-        <v>1171</v>
-      </c>
-      <c r="J218" s="5" t="s">
-        <v>1172</v>
       </c>
       <c r="K218" s="5" t="n">
         <v>9831974245</v>
@@ -18935,7 +18952,7 @@
         <v>10.8</v>
       </c>
       <c r="O218" s="5" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="P218" s="5" t="s">
         <v>21</v>
@@ -18958,16 +18975,16 @@
     </row>
     <row r="219" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B219" s="5" t="n">
         <v>5938089</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E219" s="5" t="n">
         <v>9952326618</v>
@@ -18979,13 +18996,13 @@
         <v>2</v>
       </c>
       <c r="H219" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I219" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J219" s="5" t="s">
         <v>1178</v>
-      </c>
-      <c r="I219" s="5" t="s">
-        <v>1176</v>
-      </c>
-      <c r="J219" s="5" t="s">
-        <v>1177</v>
       </c>
       <c r="K219" s="5" t="n">
         <v>9952326618</v>
@@ -19000,7 +19017,7 @@
         <v>2</v>
       </c>
       <c r="O219" s="5" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="P219" s="5" t="s">
         <v>21</v>
@@ -19023,16 +19040,16 @@
     </row>
     <row r="220" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B220" s="5" t="n">
         <v>5938101</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="E220" s="5" t="n">
         <v>9529533779</v>
@@ -19044,13 +19061,13 @@
         <v>5.4</v>
       </c>
       <c r="H220" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I220" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J220" s="5" t="s">
         <v>1183</v>
-      </c>
-      <c r="I220" s="5" t="s">
-        <v>1181</v>
-      </c>
-      <c r="J220" s="5" t="s">
-        <v>1182</v>
       </c>
       <c r="K220" s="5" t="n">
         <v>9529533779</v>
@@ -19065,7 +19082,7 @@
         <v>4.5</v>
       </c>
       <c r="O220" s="5" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="P220" s="5" t="s">
         <v>21</v>
@@ -19088,16 +19105,16 @@
     </row>
     <row r="221" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B221" s="19" t="n">
         <v>5938103</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D221" s="19" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E221" s="19" t="n">
         <v>7798141871</v>
@@ -19109,13 +19126,13 @@
         <v>4</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="J221" s="5" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="K221" s="19" t="n">
         <v>7798141871</v>
@@ -19130,7 +19147,7 @@
         <v>4.8</v>
       </c>
       <c r="O221" s="5" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="P221" s="5" t="s">
         <v>21</v>
@@ -19153,16 +19170,16 @@
     </row>
     <row r="222" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B222" s="19" t="n">
         <v>5938107</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D222" s="19" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E222" s="19" t="n">
         <v>8297141624</v>
@@ -19174,13 +19191,13 @@
         <v>3.3</v>
       </c>
       <c r="H222" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J222" s="5" t="s">
         <v>1193</v>
-      </c>
-      <c r="I222" s="5" t="s">
-        <v>1194</v>
-      </c>
-      <c r="J222" s="5" t="s">
-        <v>1192</v>
       </c>
       <c r="K222" s="19" t="n">
         <v>8297141624</v>
@@ -19195,7 +19212,7 @@
         <v>3.3</v>
       </c>
       <c r="O222" s="5" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="P222" s="5" t="s">
         <v>22</v>
@@ -19218,16 +19235,16 @@
     </row>
     <row r="223" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B223" s="5" t="n">
         <v>5938108</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E223" s="5" t="n">
         <v>9561976761</v>
@@ -19239,13 +19256,13 @@
         <v>12.9</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="J223" s="5" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="K223" s="5" t="n">
         <v>9561976761</v>
@@ -19260,7 +19277,7 @@
         <v>12.11</v>
       </c>
       <c r="O223" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P223" s="5" t="s">
         <v>21</v>
@@ -19283,16 +19300,16 @@
     </row>
     <row r="224" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B224" s="5" t="n">
         <v>5938109</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E224" s="5" t="n">
         <v>9121910314</v>
@@ -19304,13 +19321,13 @@
         <v>1.4</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="J224" s="5" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="K224" s="5" t="n">
         <v>9121910314</v>
@@ -19325,7 +19342,7 @@
         <v>1.5</v>
       </c>
       <c r="O224" s="5" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="P224" s="5" t="s">
         <v>21</v>
@@ -19348,16 +19365,16 @@
     </row>
     <row r="225" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B225" s="5" t="n">
         <v>5938110</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="E225" s="5" t="n">
         <v>8390912180</v>
@@ -19370,10 +19387,10 @@
       </c>
       <c r="H225" s="5"/>
       <c r="I225" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J225" s="5" t="s">
         <v>1209</v>
-      </c>
-      <c r="J225" s="5" t="s">
-        <v>1208</v>
       </c>
       <c r="K225" s="5" t="n">
         <v>8390912180</v>
@@ -19409,34 +19426,34 @@
     </row>
     <row r="226" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B226" s="5" t="n">
         <v>5938117</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E226" s="5" t="n">
         <v>6264198496</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G226" s="5" t="n">
         <v>7.7</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="J226" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="K226" s="5" t="n">
         <v>6264198496</v>
@@ -19449,7 +19466,7 @@
         <v>7.7</v>
       </c>
       <c r="O226" s="5" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="P226" s="5" t="s">
         <v>21</v>
@@ -19472,16 +19489,16 @@
     </row>
     <row r="227" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B227" s="5" t="n">
         <v>5938118</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E227" s="5" t="n">
         <v>8179629485</v>
@@ -19493,13 +19510,13 @@
         <v>5.8</v>
       </c>
       <c r="H227" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I227" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J227" s="5" t="s">
         <v>1219</v>
-      </c>
-      <c r="I227" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="J227" s="5" t="s">
-        <v>1218</v>
       </c>
       <c r="K227" s="5" t="n">
         <v>8179629485</v>
@@ -19514,7 +19531,7 @@
         <v>5.9</v>
       </c>
       <c r="O227" s="5" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="P227" s="5" t="s">
         <v>21</v>
@@ -19537,16 +19554,16 @@
     </row>
     <row r="228" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B228" s="5" t="n">
         <v>5938133</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E228" s="5" t="n">
         <v>7566806687</v>
@@ -19558,13 +19575,13 @@
         <v>6.5</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="J228" s="5" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="K228" s="5" t="n">
         <v>7566806687</v>
@@ -19579,7 +19596,7 @@
         <v>6.11</v>
       </c>
       <c r="O228" s="5" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="P228" s="5" t="s">
         <v>21</v>
@@ -19602,34 +19619,34 @@
     </row>
     <row r="229" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B229" s="5" t="n">
         <v>5938134</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E229" s="5" t="n">
         <v>8796239167</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G229" s="5" t="n">
         <v>7.1</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="J229" s="5" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="K229" s="5" t="n">
         <v>8796239167</v>
@@ -19644,7 +19661,7 @@
         <v>7.1</v>
       </c>
       <c r="O229" s="5" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="P229" s="5" t="s">
         <v>21</v>
@@ -19667,16 +19684,16 @@
     </row>
     <row r="230" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B230" s="5" t="n">
         <v>5938140</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E230" s="5" t="n">
         <v>7377401997</v>
@@ -19688,13 +19705,13 @@
         <v>3.5</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="J230" s="5" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="K230" s="5" t="n">
         <v>7377401997</v>
@@ -19707,7 +19724,7 @@
         <v>3.9</v>
       </c>
       <c r="O230" s="5" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="P230" s="5" t="s">
         <v>21</v>
@@ -19730,16 +19747,16 @@
     </row>
     <row r="231" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B231" s="5" t="n">
         <v>5938141</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E231" s="5" t="n">
         <v>7773079561</v>
@@ -19752,16 +19769,16 @@
       </c>
       <c r="H231" s="5"/>
       <c r="I231" s="5" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="J231" s="5" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="K231" s="5" t="n">
         <v>7773079561</v>
       </c>
       <c r="L231" s="5" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="M231" s="5" t="s">
         <v>317</v>
@@ -19770,7 +19787,7 @@
         <v>2.9</v>
       </c>
       <c r="O231" s="5" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="P231" s="5" t="s">
         <v>21</v>
@@ -19793,16 +19810,16 @@
     </row>
     <row r="232" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B232" s="5" t="n">
         <v>5938142</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="E232" s="5" t="n">
         <v>7416503476</v>
@@ -19814,13 +19831,13 @@
         <v>6</v>
       </c>
       <c r="H232" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J232" s="5" t="s">
         <v>1249</v>
-      </c>
-      <c r="I232" s="5" t="s">
-        <v>1247</v>
-      </c>
-      <c r="J232" s="5" t="s">
-        <v>1248</v>
       </c>
       <c r="K232" s="5" t="n">
         <v>7416503476</v>
@@ -19833,7 +19850,7 @@
         <v>5.8</v>
       </c>
       <c r="O232" s="5" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="P232" s="5" t="s">
         <v>21</v>
@@ -19856,40 +19873,40 @@
     </row>
     <row r="233" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B233" s="5" t="n">
         <v>5938218</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E233" s="5" t="n">
         <v>8433922212</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G233" s="5" t="n">
         <v>2.5</v>
       </c>
       <c r="H233" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I233" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J233" s="5" t="s">
         <v>1254</v>
-      </c>
-      <c r="I233" s="5" t="s">
-        <v>1252</v>
-      </c>
-      <c r="J233" s="5" t="s">
-        <v>1253</v>
       </c>
       <c r="K233" s="5" t="n">
         <v>8433922212</v>
       </c>
       <c r="L233" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M233" s="5" t="s">
         <v>317</v>
@@ -19898,7 +19915,7 @@
         <v>4.6</v>
       </c>
       <c r="O233" s="5" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="P233" s="5" t="s">
         <v>21</v>
@@ -19921,40 +19938,40 @@
     </row>
     <row r="234" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B234" s="5" t="n">
         <v>5938219</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="E234" s="5" t="n">
         <v>9326529389</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G234" s="5" t="n">
         <v>8</v>
       </c>
       <c r="H234" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J234" s="5" t="s">
         <v>1259</v>
-      </c>
-      <c r="I234" s="5" t="s">
-        <v>1257</v>
-      </c>
-      <c r="J234" s="5" t="s">
-        <v>1258</v>
       </c>
       <c r="K234" s="5" t="n">
         <v>9326529389</v>
       </c>
       <c r="L234" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M234" s="5" t="s">
         <v>817</v>
@@ -19963,7 +19980,7 @@
         <v>8.6</v>
       </c>
       <c r="O234" s="5" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="P234" s="5" t="s">
         <v>21</v>
@@ -19986,16 +20003,16 @@
     </row>
     <row r="235" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B235" s="5" t="n">
         <v>5938226</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E235" s="5" t="n">
         <v>6303785915</v>
@@ -20007,13 +20024,13 @@
         <v>6.8</v>
       </c>
       <c r="H235" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I235" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J235" s="5" t="s">
         <v>1264</v>
-      </c>
-      <c r="I235" s="5" t="s">
-        <v>1262</v>
-      </c>
-      <c r="J235" s="5" t="s">
-        <v>1263</v>
       </c>
       <c r="K235" s="5" t="n">
         <v>6303785915</v>
@@ -20028,7 +20045,7 @@
         <v>6.8</v>
       </c>
       <c r="O235" s="5" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="P235" s="5" t="s">
         <v>21</v>
@@ -20051,16 +20068,16 @@
     </row>
     <row r="236" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B236" s="5" t="n">
         <v>5938223</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E236" s="5" t="n">
         <v>9731890493</v>
@@ -20072,13 +20089,13 @@
         <v>1.6</v>
       </c>
       <c r="H236" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J236" s="5" t="s">
         <v>1269</v>
-      </c>
-      <c r="I236" s="5" t="s">
-        <v>1267</v>
-      </c>
-      <c r="J236" s="5" t="s">
-        <v>1268</v>
       </c>
       <c r="K236" s="5" t="n">
         <v>9731890493</v>
@@ -20093,7 +20110,7 @@
         <v>1.6</v>
       </c>
       <c r="O236" s="5" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="P236" s="5" t="s">
         <v>21</v>
@@ -20116,16 +20133,16 @@
     </row>
     <row r="237" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B237" s="5" t="n">
         <v>5938234</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E237" s="5" t="n">
         <v>9108984386</v>
@@ -20137,13 +20154,13 @@
         <v>5.8</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="J237" s="5" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="K237" s="5" t="n">
         <v>9108984386</v>
@@ -20158,7 +20175,7 @@
         <v>5.1</v>
       </c>
       <c r="O237" s="5" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="P237" s="5" t="s">
         <v>21</v>
@@ -20181,34 +20198,34 @@
     </row>
     <row r="238" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B238" s="5" t="n">
         <v>5938238</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="E238" s="5" t="n">
         <v>8754586761</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="G238" s="5" t="n">
         <v>15</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="J238" s="5" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="K238" s="5" t="n">
         <v>8754586761</v>
@@ -20221,7 +20238,7 @@
         <v>15.1</v>
       </c>
       <c r="O238" s="5" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="P238" s="5" t="s">
         <v>21</v>
@@ -20244,16 +20261,16 @@
     </row>
     <row r="239" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B239" s="5" t="n">
         <v>5948500</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E239" s="5" t="n">
         <v>8563966764</v>
@@ -20265,13 +20282,13 @@
         <v>28.9</v>
       </c>
       <c r="H239" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I239" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J239" s="5" t="s">
         <v>1286</v>
-      </c>
-      <c r="I239" s="5" t="s">
-        <v>1287</v>
-      </c>
-      <c r="J239" s="5" t="s">
-        <v>1285</v>
       </c>
       <c r="K239" s="5" t="n">
         <v>8563966764</v>
@@ -20286,7 +20303,7 @@
         <v>4.4</v>
       </c>
       <c r="O239" s="5" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="P239" s="5" t="s">
         <v>22</v>
@@ -20309,16 +20326,16 @@
     </row>
     <row r="240" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B240" s="5" t="n">
         <v>5949327</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E240" s="5" t="n">
         <v>6382837356</v>
@@ -20328,28 +20345,26 @@
         <v>51</v>
       </c>
       <c r="H240" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J240" s="5" t="s">
         <v>1292</v>
-      </c>
-      <c r="I240" s="5" t="s">
-        <v>1290</v>
-      </c>
-      <c r="J240" s="5" t="s">
-        <v>1291</v>
       </c>
       <c r="K240" s="5" t="n">
         <v>6382837356</v>
       </c>
-      <c r="L240" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="L240" s="5"/>
       <c r="M240" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N240" s="5" t="n">
         <v>4</v>
       </c>
       <c r="O240" s="5" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="P240" s="5" t="s">
         <v>21</v>
@@ -20372,16 +20387,16 @@
     </row>
     <row r="241" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B241" s="5" t="n">
         <v>5949796</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E241" s="5" t="n">
         <v>8056286774</v>
@@ -20393,13 +20408,13 @@
         <v>27</v>
       </c>
       <c r="H241" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I241" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J241" s="5" t="s">
         <v>1298</v>
-      </c>
-      <c r="I241" s="5" t="s">
-        <v>1296</v>
-      </c>
-      <c r="J241" s="5" t="s">
-        <v>1297</v>
       </c>
       <c r="K241" s="5" t="n">
         <v>8056286774</v>
@@ -20414,7 +20429,7 @@
         <v>27.8</v>
       </c>
       <c r="O241" s="5" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="P241" s="5" t="s">
         <v>21</v>
@@ -20437,16 +20452,16 @@
     </row>
     <row r="242" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B242" s="5" t="n">
         <v>5947245</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="E242" s="5" t="n">
         <v>8651735805</v>
@@ -20458,13 +20473,13 @@
         <v>1.6</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="J242" s="5" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="K242" s="5" t="n">
         <v>8651735805</v>
@@ -20479,7 +20494,7 @@
         <v>1.7</v>
       </c>
       <c r="O242" s="5" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="P242" s="5" t="s">
         <v>21</v>
@@ -20502,16 +20517,16 @@
     </row>
     <row r="243" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B243" s="19" t="n">
         <v>5947355</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="E243" s="5" t="n">
         <v>6388545076</v>
@@ -20521,19 +20536,19 @@
         <v>2.6</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="J243" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="K243" s="5" t="n">
         <v>6388545076</v>
       </c>
       <c r="L243" s="5" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="M243" s="5" t="s">
         <v>317</v>
@@ -20542,7 +20557,7 @@
         <v>2.7</v>
       </c>
       <c r="O243" s="5" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="P243" s="5" t="s">
         <v>22</v>
@@ -20565,16 +20580,16 @@
     </row>
     <row r="244" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B244" s="5" t="n">
         <v>5947667</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="E244" s="5" t="n">
         <v>6302816037</v>
@@ -20586,13 +20601,13 @@
         <v>7.6</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="J244" s="5" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="K244" s="5" t="n">
         <v>6302816037</v>
@@ -20607,7 +20622,7 @@
         <v>7.7</v>
       </c>
       <c r="O244" s="5" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="P244" s="5" t="s">
         <v>21</v>
@@ -20630,16 +20645,16 @@
     </row>
     <row r="245" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B245" s="5" t="n">
         <v>5947821</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="E245" s="5" t="n">
         <v>9632419733</v>
@@ -20651,13 +20666,13 @@
         <v>5.6</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="J245" s="5" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="K245" s="5" t="n">
         <v>9632419733</v>
@@ -20672,7 +20687,7 @@
         <v>5.6</v>
       </c>
       <c r="O245" s="5" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="P245" s="5" t="s">
         <v>22</v>
@@ -20695,41 +20710,39 @@
     </row>
     <row r="246" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B246" s="5" t="n">
         <v>5948628</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E246" s="5" t="n">
         <v>9634702275</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G246" s="5" t="n">
         <v>6.1</v>
       </c>
       <c r="H246" s="5"/>
       <c r="I246" s="5" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="J246" s="5" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="K246" s="5" t="n">
         <v>9634702275</v>
       </c>
-      <c r="L246" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="L246" s="5"/>
       <c r="M246" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N246" s="5" t="n">
         <v>6</v>
@@ -20758,34 +20771,34 @@
     </row>
     <row r="247" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B247" s="5" t="n">
         <v>5948659</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="E247" s="5" t="n">
         <v>7838974143</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G247" s="5" t="n">
         <v>12</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="J247" s="5" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="K247" s="5" t="n">
         <v>7838974143</v>
@@ -20823,16 +20836,16 @@
     </row>
     <row r="248" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B248" s="5" t="n">
         <v>5947360</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E248" s="5" t="n">
         <v>11802163</v>
@@ -20844,13 +20857,13 @@
         <v>8</v>
       </c>
       <c r="H248" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J248" s="5" t="s">
         <v>1339</v>
-      </c>
-      <c r="I248" s="5" t="s">
-        <v>1337</v>
-      </c>
-      <c r="J248" s="5" t="s">
-        <v>1338</v>
       </c>
       <c r="K248" s="5" t="n">
         <v>9007789112</v>
@@ -20865,7 +20878,7 @@
         <v>8.1</v>
       </c>
       <c r="O248" s="5" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="P248" s="5" t="s">
         <v>21</v>
@@ -20888,16 +20901,16 @@
     </row>
     <row r="249" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B249" s="5" t="n">
         <v>5947676</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="E249" s="5" t="n">
         <v>10485124</v>
@@ -20909,13 +20922,13 @@
         <v>9</v>
       </c>
       <c r="H249" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I249" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J249" s="5" t="s">
         <v>1343</v>
-      </c>
-      <c r="I249" s="5" t="s">
-        <v>1341</v>
-      </c>
-      <c r="J249" s="5" t="s">
-        <v>1342</v>
       </c>
       <c r="K249" s="5" t="n">
         <v>9901428260</v>
@@ -20930,7 +20943,7 @@
         <v>9.6</v>
       </c>
       <c r="O249" s="5" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="P249" s="5" t="s">
         <v>21</v>
@@ -20953,16 +20966,16 @@
     </row>
     <row r="250" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B250" s="5" t="n">
         <v>5948109</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="E250" s="5" t="n">
         <v>616175199</v>
@@ -20974,13 +20987,13 @@
         <v>4</v>
       </c>
       <c r="H250" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="J250" s="5" t="s">
         <v>1348</v>
-      </c>
-      <c r="I250" s="5" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J250" s="5" t="s">
-        <v>1347</v>
       </c>
       <c r="K250" s="5" t="n">
         <v>8168869717</v>
@@ -20995,7 +21008,7 @@
         <v>4.5</v>
       </c>
       <c r="O250" s="5" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="P250" s="5" t="s">
         <v>21</v>
@@ -21018,16 +21031,16 @@
     </row>
     <row r="251" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B251" s="5" t="n">
         <v>5949397</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="E251" s="5" t="n">
         <v>91094406</v>
@@ -21039,22 +21052,20 @@
         <v>6.5</v>
       </c>
       <c r="H251" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I251" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="J251" s="5" t="s">
         <v>1353</v>
-      </c>
-      <c r="I251" s="5" t="s">
-        <v>1351</v>
-      </c>
-      <c r="J251" s="5" t="s">
-        <v>1352</v>
       </c>
       <c r="K251" s="5" t="n">
         <v>8899461439</v>
       </c>
-      <c r="L251" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="L251" s="5"/>
       <c r="M251" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N251" s="5" t="n">
         <v>7.2</v>
@@ -21083,32 +21094,32 @@
     </row>
     <row r="252" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B252" s="5" t="n">
         <v>5947032</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="E252" s="5" t="n">
         <v>9011326474</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G252" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H252" s="13"/>
       <c r="I252" s="5" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="J252" s="5" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="K252" s="5" t="n">
         <v>9011326474</v>
@@ -21144,16 +21155,16 @@
     </row>
     <row r="253" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B253" s="5" t="n">
         <v>5947046</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E253" s="5" t="n">
         <v>7095995117</v>
@@ -21165,13 +21176,13 @@
         <v>10.4</v>
       </c>
       <c r="H253" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I253" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="J253" s="5" t="s">
         <v>1362</v>
-      </c>
-      <c r="I253" s="5" t="s">
-        <v>1363</v>
-      </c>
-      <c r="J253" s="5" t="s">
-        <v>1361</v>
       </c>
       <c r="K253" s="5" t="n">
         <v>7095995117</v>
@@ -21209,40 +21220,40 @@
     </row>
     <row r="254" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B254" s="19" t="n">
         <v>5947047</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D254" s="19" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="E254" s="19" t="n">
         <v>7776066303</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G254" s="5" t="n">
         <v>12</v>
       </c>
       <c r="H254" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J254" s="5" t="s">
         <v>1367</v>
-      </c>
-      <c r="I254" s="5" t="s">
-        <v>1368</v>
-      </c>
-      <c r="J254" s="5" t="s">
-        <v>1366</v>
       </c>
       <c r="K254" s="19" t="n">
         <v>7776066303</v>
       </c>
       <c r="L254" s="5" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="M254" s="5" t="s">
         <v>317</v>
@@ -21274,40 +21285,40 @@
     </row>
     <row r="255" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B255" s="19" t="n">
         <v>5947058</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D255" s="19" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="E255" s="19" t="n">
         <v>8108484593</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G255" s="5" t="n">
         <v>10.6</v>
       </c>
       <c r="H255" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I255" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J255" s="5" t="s">
         <v>1373</v>
-      </c>
-      <c r="I255" s="5" t="s">
-        <v>1374</v>
-      </c>
-      <c r="J255" s="5" t="s">
-        <v>1372</v>
       </c>
       <c r="K255" s="19" t="n">
         <v>8108484593</v>
       </c>
       <c r="L255" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M255" s="5" t="s">
         <v>317</v>
@@ -21316,7 +21327,7 @@
         <v>9.1</v>
       </c>
       <c r="O255" s="5" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="P255" s="5" t="s">
         <v>21</v>
@@ -21339,40 +21350,40 @@
     </row>
     <row r="256" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B256" s="5" t="n">
         <v>5947065</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="E256" s="5" t="n">
         <v>9780945733</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G256" s="5" t="n">
         <v>7</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="K256" s="5" t="n">
         <v>9780945733</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="M256" s="5" t="s">
         <v>317</v>
@@ -21381,7 +21392,7 @@
         <v>7.4</v>
       </c>
       <c r="O256" s="5" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="P256" s="5" t="s">
         <v>22</v>
@@ -21404,49 +21415,49 @@
     </row>
     <row r="257" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B257" s="5" t="n">
         <v>5947068</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E257" s="5" t="n">
         <v>9830505150</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G257" s="5" t="n">
         <v>14</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="J257" s="5" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="K257" s="5" t="n">
         <v>9830505150</v>
       </c>
-      <c r="L257" s="5" t="s">
-        <v>116</v>
+      <c r="L257" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N257" s="5" t="n">
         <v>15.2</v>
       </c>
       <c r="O257" s="5" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="P257" s="5" t="s">
         <v>21</v>
@@ -21469,40 +21480,40 @@
     </row>
     <row r="258" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B258" s="5" t="n">
         <v>5947074</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="E258" s="5" t="n">
         <v>9683647822</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G258" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="H258" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I258" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="J258" s="5" t="s">
         <v>1393</v>
-      </c>
-      <c r="I258" s="5" t="s">
-        <v>1394</v>
-      </c>
-      <c r="J258" s="5" t="s">
-        <v>1392</v>
       </c>
       <c r="K258" s="5" t="n">
         <v>9683647822</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="M258" s="5" t="s">
         <v>317</v>
@@ -21511,7 +21522,7 @@
         <v>12.11</v>
       </c>
       <c r="O258" s="5" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="P258" s="5" t="s">
         <v>21</v>
@@ -21534,40 +21545,40 @@
     </row>
     <row r="259" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B259" s="5" t="n">
         <v>5947075</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E259" s="5" t="n">
         <v>9754837577</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G259" s="5" t="n">
         <v>4</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="J259" s="5" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="K259" s="5" t="n">
         <v>9754837577</v>
       </c>
       <c r="L259" s="5" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="M259" s="5" t="s">
         <v>317</v>
@@ -21576,7 +21587,7 @@
         <v>4</v>
       </c>
       <c r="O259" s="5" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="P259" s="5" t="s">
         <v>21</v>
@@ -21599,40 +21610,40 @@
     </row>
     <row r="260" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B260" s="5" t="n">
         <v>5947081</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="E260" s="5" t="n">
         <v>9656141422</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G260" s="5" t="n">
         <v>1.1</v>
       </c>
       <c r="H260" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J260" s="5" t="s">
         <v>1407</v>
-      </c>
-      <c r="I260" s="5" t="s">
-        <v>1405</v>
-      </c>
-      <c r="J260" s="5" t="s">
-        <v>1406</v>
       </c>
       <c r="K260" s="5" t="n">
         <v>9656141422</v>
       </c>
       <c r="L260" s="5" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="M260" s="5" t="s">
         <v>317</v>
@@ -21641,7 +21652,7 @@
         <v>1.1</v>
       </c>
       <c r="O260" s="5" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="P260" s="5" t="s">
         <v>21</v>
@@ -21664,16 +21675,16 @@
     </row>
     <row r="261" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B261" s="5" t="n">
         <v>5947096</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E261" s="5" t="n">
         <v>9742351067</v>
@@ -21683,28 +21694,26 @@
         <v>6.5</v>
       </c>
       <c r="H261" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I261" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J261" s="5" t="s">
         <v>1413</v>
-      </c>
-      <c r="I261" s="5" t="s">
-        <v>1411</v>
-      </c>
-      <c r="J261" s="5" t="s">
-        <v>1412</v>
       </c>
       <c r="K261" s="5" t="n">
         <v>9742351067</v>
       </c>
-      <c r="L261" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="L261" s="5"/>
       <c r="M261" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N261" s="5" t="n">
         <v>6.11</v>
       </c>
       <c r="O261" s="5" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="P261" s="5" t="s">
         <v>21</v>
@@ -21727,16 +21736,16 @@
     </row>
     <row r="262" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B262" s="5" t="n">
         <v>5947111</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E262" s="5" t="n">
         <v>9690582043</v>
@@ -21748,13 +21757,13 @@
         <v>3.8</v>
       </c>
       <c r="H262" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J262" s="5" t="s">
         <v>1418</v>
-      </c>
-      <c r="I262" s="5" t="s">
-        <v>1416</v>
-      </c>
-      <c r="J262" s="5" t="s">
-        <v>1417</v>
       </c>
       <c r="K262" s="5" t="n">
         <v>9690582043</v>
@@ -21769,7 +21778,7 @@
         <v>3.11</v>
       </c>
       <c r="O262" s="5" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="P262" s="5" t="s">
         <v>21</v>
@@ -21792,16 +21801,16 @@
     </row>
     <row r="263" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B263" s="5" t="n">
         <v>5947131</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="E263" s="5" t="n">
         <v>9100231889</v>
@@ -21811,28 +21820,26 @@
         <v>8.9</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="K263" s="5" t="n">
         <v>9100231889</v>
       </c>
-      <c r="L263" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="L263" s="5"/>
       <c r="M263" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N263" s="5" t="n">
         <v>8.11</v>
       </c>
       <c r="O263" s="5" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="P263" s="5" t="s">
         <v>21</v>
@@ -21855,16 +21862,16 @@
     </row>
     <row r="264" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B264" s="5" t="n">
         <v>5947132</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E264" s="5" t="n">
         <v>8983580914</v>
@@ -21876,13 +21883,13 @@
         <v>6.3</v>
       </c>
       <c r="H264" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="J264" s="5" t="s">
         <v>1429</v>
-      </c>
-      <c r="I264" s="5" t="s">
-        <v>1427</v>
-      </c>
-      <c r="J264" s="5" t="s">
-        <v>1428</v>
       </c>
       <c r="K264" s="5" t="n">
         <v>8983580914</v>
@@ -21920,40 +21927,40 @@
     </row>
     <row r="265" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B265" s="5" t="n">
         <v>5947184</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="E265" s="5" t="n">
         <v>8838492812</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G265" s="5" t="n">
         <v>4.1</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="J265" s="5" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="K265" s="5" t="n">
         <v>8838492812</v>
       </c>
       <c r="L265" s="5" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="M265" s="5" t="s">
         <v>317</v>
@@ -21962,7 +21969,7 @@
         <v>4.1</v>
       </c>
       <c r="O265" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="P265" s="5" t="s">
         <v>21</v>
@@ -21985,16 +21992,16 @@
     </row>
     <row r="266" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B266" s="5" t="n">
         <v>5947190</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="E266" s="5" t="n">
         <v>9063226411</v>
@@ -22007,19 +22014,17 @@
         <v>263</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="J266" s="5" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="K266" s="5" t="n">
         <v>9063226411</v>
       </c>
-      <c r="L266" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="L266" s="5"/>
       <c r="M266" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N266" s="5" t="n">
         <v>2.9</v>
@@ -22048,16 +22053,16 @@
     </row>
     <row r="267" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B267" s="5" t="n">
         <v>5947204</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="E267" s="5" t="n">
         <v>7008537372</v>
@@ -22069,13 +22074,13 @@
         <v>6.3</v>
       </c>
       <c r="H267" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I267" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="J267" s="5" t="s">
         <v>1442</v>
-      </c>
-      <c r="I267" s="5" t="s">
-        <v>1443</v>
-      </c>
-      <c r="J267" s="5" t="s">
-        <v>1441</v>
       </c>
       <c r="K267" s="5" t="n">
         <v>7008537372</v>
@@ -22113,22 +22118,22 @@
     </row>
     <row r="268" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B268" s="5" t="n">
         <v>5947211</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E268" s="5" t="n">
         <v>7015517324</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="G268" s="5" t="n">
         <v>6</v>
@@ -22137,19 +22142,17 @@
         <v>543</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="J268" s="5" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="K268" s="5" t="n">
         <v>7015517324</v>
       </c>
-      <c r="L268" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="L268" s="5"/>
       <c r="M268" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N268" s="5" t="n">
         <v>6.6</v>
@@ -22178,16 +22181,16 @@
     </row>
     <row r="269" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B269" s="5" t="n">
         <v>5947250</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="E269" s="5" t="n">
         <v>9742572959</v>
@@ -22199,13 +22202,13 @@
         <v>4.1</v>
       </c>
       <c r="H269" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="I269" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J269" s="5" t="s">
         <v>1452</v>
-      </c>
-      <c r="I269" s="5" t="s">
-        <v>1453</v>
-      </c>
-      <c r="J269" s="5" t="s">
-        <v>1451</v>
       </c>
       <c r="K269" s="5" t="n">
         <v>9742572959</v>
@@ -22220,7 +22223,7 @@
         <v>4</v>
       </c>
       <c r="O269" s="5" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="P269" s="5" t="s">
         <v>21</v>
@@ -22243,16 +22246,16 @@
     </row>
     <row r="270" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B270" s="5" t="n">
         <v>5947259</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E270" s="5" t="n">
         <v>9591253342</v>
@@ -22264,28 +22267,28 @@
         <v>3.8</v>
       </c>
       <c r="H270" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="J270" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="I270" s="5" t="s">
-        <v>1456</v>
-      </c>
-      <c r="J270" s="5" t="s">
-        <v>1457</v>
       </c>
       <c r="K270" s="5" t="n">
         <v>9591253342</v>
       </c>
-      <c r="L270" s="5" t="s">
-        <v>116</v>
+      <c r="L270" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="M270" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N270" s="5" t="n">
         <v>3.8</v>
       </c>
       <c r="O270" s="5" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="P270" s="5" t="s">
         <v>21</v>
@@ -22308,16 +22311,16 @@
     </row>
     <row r="271" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B271" s="5" t="n">
         <v>5947272</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E271" s="5" t="n">
         <v>9448213688</v>
@@ -22329,13 +22332,13 @@
         <v>10.4</v>
       </c>
       <c r="H271" s="5" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J271" s="5" t="s">
         <v>1463</v>
-      </c>
-      <c r="I271" s="5" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J271" s="5" t="s">
-        <v>1462</v>
       </c>
       <c r="K271" s="5" t="n">
         <v>9448213688</v>
@@ -22350,7 +22353,7 @@
         <v>10.4</v>
       </c>
       <c r="O271" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P271" s="5" t="s">
         <v>21</v>
@@ -22373,41 +22376,39 @@
     </row>
     <row r="272" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B272" s="5" t="n">
         <v>5947293</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="E272" s="5" t="n">
         <v>8903150289</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="G272" s="5" t="n">
         <v>7.8</v>
       </c>
       <c r="H272" s="5"/>
       <c r="I272" s="5" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="J272" s="5" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="K272" s="5" t="n">
         <v>8903150289</v>
       </c>
-      <c r="L272" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="L272" s="5"/>
       <c r="M272" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N272" s="5" t="n">
         <v>7.4</v>
@@ -22436,40 +22437,40 @@
     </row>
     <row r="273" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B273" s="5" t="n">
         <v>5947294</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="E273" s="5" t="n">
         <v>7339124359</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="G273" s="5" t="n">
         <v>3.6</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="I273" s="5" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="J273" s="5" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="K273" s="5" t="n">
         <v>7339124359</v>
       </c>
       <c r="L273" s="5" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="M273" s="5" t="s">
         <v>317</v>
@@ -22478,7 +22479,7 @@
         <v>3.6</v>
       </c>
       <c r="O273" s="5" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="P273" s="5" t="s">
         <v>21</v>
@@ -22501,16 +22502,16 @@
     </row>
     <row r="274" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B274" s="5" t="n">
         <v>5947326</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E274" s="5" t="n">
         <v>8932030362</v>
@@ -22520,28 +22521,26 @@
         <v>3</v>
       </c>
       <c r="H274" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J274" s="5" t="s">
         <v>1476</v>
-      </c>
-      <c r="I274" s="5" t="s">
-        <v>1474</v>
-      </c>
-      <c r="J274" s="5" t="s">
-        <v>1475</v>
       </c>
       <c r="K274" s="5" t="n">
         <v>8932030362</v>
       </c>
-      <c r="L274" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="L274" s="5"/>
       <c r="M274" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N274" s="5" t="n">
         <v>3</v>
       </c>
       <c r="O274" s="5" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="P274" s="5" t="s">
         <v>21</v>
@@ -22564,40 +22563,40 @@
     </row>
     <row r="275" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B275" s="5" t="n">
         <v>5947327</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="E275" s="5" t="n">
         <v>8103916415</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="G275" s="5" t="n">
         <v>2.8</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="J275" s="5" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="K275" s="5" t="n">
         <v>8103916415</v>
       </c>
       <c r="L275" s="5" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="M275" s="5" t="s">
         <v>317</v>
@@ -22606,7 +22605,7 @@
         <v>3</v>
       </c>
       <c r="O275" s="5" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="P275" s="5" t="s">
         <v>22</v>
@@ -22629,40 +22628,40 @@
     </row>
     <row r="276" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B276" s="5" t="n">
         <v>5947328</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="E276" s="5" t="n">
         <v>9118778428</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G276" s="5" t="n">
         <v>4.6</v>
       </c>
       <c r="H276" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="J276" s="5" t="s">
         <v>1487</v>
-      </c>
-      <c r="I276" s="5" t="s">
-        <v>1488</v>
-      </c>
-      <c r="J276" s="5" t="s">
-        <v>1486</v>
       </c>
       <c r="K276" s="5" t="n">
         <v>9118778428</v>
       </c>
       <c r="L276" s="5" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="M276" s="5" t="s">
         <v>317</v>
@@ -22671,7 +22670,7 @@
         <v>4.6</v>
       </c>
       <c r="O276" s="5" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="P276" s="5" t="s">
         <v>22</v>
@@ -22694,16 +22693,16 @@
     </row>
     <row r="277" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B277" s="5" t="n">
         <v>5947329</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="E277" s="5" t="n">
         <v>9392083881</v>
@@ -22715,13 +22714,13 @@
         <v>14.5</v>
       </c>
       <c r="H277" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="I277" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J277" s="5" t="s">
         <v>1494</v>
-      </c>
-      <c r="I277" s="5" t="s">
-        <v>1492</v>
-      </c>
-      <c r="J277" s="5" t="s">
-        <v>1493</v>
       </c>
       <c r="K277" s="5" t="n">
         <v>9392083881</v>
@@ -22736,7 +22735,7 @@
         <v>14.7</v>
       </c>
       <c r="O277" s="5" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="P277" s="5" t="s">
         <v>21</v>
@@ -22759,16 +22758,16 @@
     </row>
     <row r="278" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B278" s="5" t="n">
         <v>5950026</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="E278" s="5" t="n">
         <v>8522871339</v>
@@ -22781,10 +22780,10 @@
       </c>
       <c r="H278" s="5"/>
       <c r="I278" s="5" t="s">
+        <v>1500</v>
+      </c>
+      <c r="J278" s="5" t="s">
         <v>1499</v>
-      </c>
-      <c r="J278" s="5" t="s">
-        <v>1498</v>
       </c>
       <c r="K278" s="5" t="n">
         <v>8522871339</v>
@@ -22799,7 +22798,7 @@
         <v>1.7</v>
       </c>
       <c r="O278" s="5" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="P278" s="5" t="s">
         <v>22</v>
@@ -22822,40 +22821,40 @@
     </row>
     <row r="279" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B279" s="5" t="n">
         <v>5947352</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="E279" s="5" t="n">
         <v>9682931298</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="G279" s="5" t="n">
         <v>12.3</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="J279" s="5" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K279" s="5" t="n">
         <v>9682931298</v>
       </c>
       <c r="L279" s="5" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="M279" s="5" t="s">
         <v>317</v>
@@ -22864,7 +22863,7 @@
         <v>12.1</v>
       </c>
       <c r="O279" s="5" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="P279" s="5" t="s">
         <v>21</v>
@@ -22887,16 +22886,16 @@
     </row>
     <row r="280" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B280" s="5" t="n">
         <v>5947353</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="E280" s="5" t="n">
         <v>9920883640</v>
@@ -22908,13 +22907,13 @@
         <v>15.9</v>
       </c>
       <c r="H280" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="J280" s="5" t="s">
         <v>1510</v>
-      </c>
-      <c r="I280" s="5" t="s">
-        <v>1508</v>
-      </c>
-      <c r="J280" s="5" t="s">
-        <v>1509</v>
       </c>
       <c r="K280" s="5" t="n">
         <v>9920883640</v>
@@ -22929,7 +22928,7 @@
         <v>15.4</v>
       </c>
       <c r="O280" s="5" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="P280" s="5" t="s">
         <v>21</v>
@@ -22952,40 +22951,40 @@
     </row>
     <row r="281" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B281" s="5" t="n">
         <v>5947371</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="E281" s="5" t="n">
         <v>9828056080</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G281" s="5" t="n">
         <v>3.5</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="J281" s="5" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="K281" s="5" t="n">
         <v>9828056080</v>
       </c>
       <c r="L281" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M281" s="5" t="s">
         <v>317</v>
@@ -22994,7 +22993,7 @@
         <v>3.11</v>
       </c>
       <c r="O281" s="5" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="P281" s="5" t="s">
         <v>21</v>
@@ -23017,40 +23016,40 @@
     </row>
     <row r="282" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B282" s="5" t="n">
         <v>5947393</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="E282" s="5" t="n">
         <v>8108320207</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G282" s="5" t="n">
         <v>16</v>
       </c>
       <c r="H282" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J282" s="5" t="s">
         <v>1521</v>
-      </c>
-      <c r="I282" s="5" t="s">
-        <v>1519</v>
-      </c>
-      <c r="J282" s="5" t="s">
-        <v>1520</v>
       </c>
       <c r="K282" s="5" t="n">
         <v>8108320207</v>
       </c>
       <c r="L282" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M282" s="5" t="s">
         <v>317</v>
@@ -23059,7 +23058,7 @@
         <v>12.2</v>
       </c>
       <c r="O282" s="5" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="P282" s="5" t="s">
         <v>21</v>
@@ -23082,16 +23081,16 @@
     </row>
     <row r="283" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B283" s="5" t="n">
         <v>5947411</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="E283" s="5" t="n">
         <v>8050347903</v>
@@ -23103,13 +23102,13 @@
         <v>9.3</v>
       </c>
       <c r="H283" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I283" s="5" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J283" s="5" t="s">
         <v>1525</v>
-      </c>
-      <c r="I283" s="5" t="s">
-        <v>1523</v>
-      </c>
-      <c r="J283" s="5" t="s">
-        <v>1524</v>
       </c>
       <c r="K283" s="5" t="n">
         <v>8050347903</v>
@@ -23123,8 +23122,8 @@
       <c r="N283" s="8" t="n">
         <v>9.3</v>
       </c>
-      <c r="O283" s="20" t="s">
-        <v>1526</v>
+      <c r="O283" s="21" t="s">
+        <v>1527</v>
       </c>
       <c r="P283" s="5" t="s">
         <v>21</v>
@@ -23147,49 +23146,47 @@
     </row>
     <row r="284" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B284" s="5" t="n">
         <v>5947432</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="E284" s="5" t="n">
         <v>9672897025</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G284" s="5" t="n">
         <v>2.5</v>
       </c>
       <c r="H284" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I284" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="J284" s="5" t="s">
         <v>1530</v>
-      </c>
-      <c r="I284" s="5" t="s">
-        <v>1528</v>
-      </c>
-      <c r="J284" s="5" t="s">
-        <v>1529</v>
       </c>
       <c r="K284" s="5" t="n">
         <v>9761603139</v>
       </c>
-      <c r="L284" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="L284" s="5"/>
       <c r="M284" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N284" s="5" t="n">
         <v>2.6</v>
       </c>
       <c r="O284" s="5" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="P284" s="5" t="s">
         <v>21</v>
@@ -23212,16 +23209,16 @@
     </row>
     <row r="285" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B285" s="5" t="n">
         <v>5947482</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="E285" s="5" t="n">
         <v>8788856590</v>
@@ -23233,13 +23230,13 @@
         <v>8</v>
       </c>
       <c r="H285" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I285" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="J285" s="5" t="s">
         <v>1535</v>
-      </c>
-      <c r="I285" s="5" t="s">
-        <v>1533</v>
-      </c>
-      <c r="J285" s="5" t="s">
-        <v>1534</v>
       </c>
       <c r="K285" s="5" t="n">
         <v>8788856590</v>
@@ -23254,7 +23251,7 @@
         <v>8.3</v>
       </c>
       <c r="O285" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P285" s="5" t="s">
         <v>21</v>
@@ -23277,16 +23274,16 @@
     </row>
     <row r="286" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B286" s="19" t="n">
         <v>5947502</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D286" s="19" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="E286" s="5" t="n">
         <v>9711448744</v>
@@ -23298,28 +23295,26 @@
         <v>6</v>
       </c>
       <c r="H286" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I286" s="19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J286" s="19" t="s">
         <v>1539</v>
-      </c>
-      <c r="I286" s="19" t="s">
-        <v>1537</v>
-      </c>
-      <c r="J286" s="19" t="s">
-        <v>1538</v>
       </c>
       <c r="K286" s="5" t="n">
         <v>9711448744</v>
       </c>
-      <c r="L286" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="L286" s="12"/>
       <c r="M286" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N286" s="5" t="n">
         <v>4.8</v>
       </c>
       <c r="O286" s="5" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="P286" s="5" t="s">
         <v>21</v>
@@ -23342,16 +23337,16 @@
     </row>
     <row r="287" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B287" s="5" t="n">
         <v>5947505</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="E287" s="5" t="n">
         <v>9962466624</v>
@@ -23361,13 +23356,13 @@
         <v>13.7</v>
       </c>
       <c r="H287" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I287" s="5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="J287" s="5" t="s">
         <v>1544</v>
-      </c>
-      <c r="I287" s="5" t="s">
-        <v>1542</v>
-      </c>
-      <c r="J287" s="5" t="s">
-        <v>1543</v>
       </c>
       <c r="K287" s="5" t="n">
         <v>9962466624</v>
@@ -23382,7 +23377,7 @@
         <v>13.9</v>
       </c>
       <c r="O287" s="5" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="P287" s="5" t="s">
         <v>21</v>
